--- a/Faydalanma Atama/Faydalanma.xlsx
+++ b/Faydalanma Atama/Faydalanma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yak\Desktop\Python\Faydalanma Atama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7A53902-04C4-4582-9B12-FA0C13425008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E251B085-F8EB-435D-AD49-C06894865CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="161">
   <si>
     <t>STATÜ KODU</t>
   </si>
@@ -485,18 +485,6 @@
   </si>
   <si>
     <t>67301300-675</t>
-  </si>
-  <si>
-    <t>86931800-18</t>
-  </si>
-  <si>
-    <t>000000000040002656</t>
-  </si>
-  <si>
-    <t>BT-5.05MM-CT-KY190</t>
-  </si>
-  <si>
-    <t>cdayioglu</t>
   </si>
   <si>
     <t>67305400-838</t>
@@ -573,8 +561,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K82">
-  <autoFilter ref="A1:K82" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K81">
+  <autoFilter ref="A1:K81" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STATÜ KODU"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="BARKOD NUMARASI"/>
@@ -909,9 +897,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3394,28 +3384,28 @@
         <v>155</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="D78" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="E78">
-        <v>869309</v>
+        <v>870314</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="H78">
-        <v>7790</v>
+        <v>3696.98</v>
       </c>
       <c r="I78" s="1">
-        <v>46010.402523148201</v>
+        <v>46010.437893518501</v>
       </c>
       <c r="J78" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3423,31 +3413,31 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C79" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="D79" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="E79">
-        <v>870314</v>
+        <v>859225</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G79" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H79">
-        <v>3696.98</v>
+        <v>2900</v>
       </c>
       <c r="I79" s="1">
-        <v>46010.437893518501</v>
+        <v>46010.454953703702</v>
       </c>
       <c r="J79" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3455,31 +3445,31 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C80" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="D80" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="E80">
-        <v>859225</v>
+        <v>862462</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H80">
-        <v>2900</v>
+        <v>2060</v>
       </c>
       <c r="I80" s="1">
-        <v>46010.454953703702</v>
+        <v>46010.462986111103</v>
       </c>
       <c r="J80" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3487,62 +3477,30 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C81" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D81" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E81">
-        <v>862462</v>
+        <v>871644</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H81">
-        <v>2060</v>
+        <v>19545</v>
       </c>
       <c r="I81" s="1">
-        <v>46010.462986111103</v>
+        <v>46010.463692129597</v>
       </c>
       <c r="J81" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" t="s">
-        <v>164</v>
-      </c>
-      <c r="C82" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82">
-        <v>871644</v>
-      </c>
-      <c r="F82" t="s">
-        <v>37</v>
-      </c>
-      <c r="G82" t="s">
-        <v>38</v>
-      </c>
-      <c r="H82">
-        <v>19545</v>
-      </c>
-      <c r="I82" s="1">
-        <v>46010.463692129597</v>
-      </c>
-      <c r="J82" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Faydalanma Atama/Faydalanma.xlsx
+++ b/Faydalanma Atama/Faydalanma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yak\Desktop\Python\Faydalanma Atama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E251B085-F8EB-435D-AD49-C06894865CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092870CB-0ACC-4499-BD7A-71EAA78B5C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="265">
   <si>
     <t>STATÜ KODU</t>
   </si>
@@ -58,7 +58,73 @@
     <t>FAYDALANMA BEKLİYOR</t>
   </si>
   <si>
-    <t>67299800-107</t>
+    <t>67304000-273</t>
+  </si>
+  <si>
+    <t>000000000040002400</t>
+  </si>
+  <si>
+    <t>TV 2.80MM-75MC</t>
+  </si>
+  <si>
+    <t>000000000040002376</t>
+  </si>
+  <si>
+    <t>TV 2.50MM-70MC</t>
+  </si>
+  <si>
+    <t>1385</t>
+  </si>
+  <si>
+    <t>67306200-474</t>
+  </si>
+  <si>
+    <t>000000000040002426</t>
+  </si>
+  <si>
+    <t>TV 3.50MM-83HC</t>
+  </si>
+  <si>
+    <t>000000000040002380</t>
+  </si>
+  <si>
+    <t>TV 3.20MM-70MC</t>
+  </si>
+  <si>
+    <t>74545700-19</t>
+  </si>
+  <si>
+    <t>000000000040002726</t>
+  </si>
+  <si>
+    <t>TG 4.60MM-KT_B-70MC</t>
+  </si>
+  <si>
+    <t>000000000040002725</t>
+  </si>
+  <si>
+    <t>TG 4.10MM-KT_AB-70MC</t>
+  </si>
+  <si>
+    <t>67301300-675</t>
+  </si>
+  <si>
+    <t>000000000040002371</t>
+  </si>
+  <si>
+    <t>TV 1.90MM-70MC</t>
+  </si>
+  <si>
+    <t>000000000040002373</t>
+  </si>
+  <si>
+    <t>TV 2.20MM-70MC</t>
+  </si>
+  <si>
+    <t>ycevik</t>
+  </si>
+  <si>
+    <t>67299800-104</t>
   </si>
   <si>
     <t>000000000040002392</t>
@@ -73,10 +139,7 @@
     <t>TV 1.50MM-70MC</t>
   </si>
   <si>
-    <t>1385</t>
-  </si>
-  <si>
-    <t>67303900-849</t>
+    <t>67305400-838</t>
   </si>
   <si>
     <t>000000000040002378</t>
@@ -85,16 +148,19 @@
     <t>TV 2.80MM-70MC</t>
   </si>
   <si>
-    <t>000000000040002376</t>
-  </si>
-  <si>
-    <t>TV 2.50MM-70MC</t>
-  </si>
-  <si>
-    <t>ycevik</t>
-  </si>
-  <si>
-    <t>67723300-23</t>
+    <t>67405900-42</t>
+  </si>
+  <si>
+    <t>000000000040002544</t>
+  </si>
+  <si>
+    <t>PRV 1.50MM-75MC</t>
+  </si>
+  <si>
+    <t>67305400-839</t>
+  </si>
+  <si>
+    <t>67723300-26</t>
   </si>
   <si>
     <t>000000000040002172</t>
@@ -103,85 +169,412 @@
     <t>TG 2.60MM-KT_AB-70MC</t>
   </si>
   <si>
+    <t>000000000040003137</t>
+  </si>
+  <si>
+    <t>TG 2.10MM-KT_AB-70MC</t>
+  </si>
+  <si>
+    <t>85961900-28</t>
+  </si>
+  <si>
+    <t>000000000040003138</t>
+  </si>
+  <si>
+    <t>TG 2.90MM-KT_AB-70MC</t>
+  </si>
+  <si>
+    <t>000000000040002220</t>
+  </si>
+  <si>
+    <t>TG 2.60MM-KT_B-70MC</t>
+  </si>
+  <si>
+    <t>67303700-115</t>
+  </si>
+  <si>
+    <t>000000000040002420</t>
+  </si>
+  <si>
+    <t>TV 2.60MM-83HC</t>
+  </si>
+  <si>
+    <t>67305400-837</t>
+  </si>
+  <si>
+    <t>67301300-721</t>
+  </si>
+  <si>
+    <t>000000000040002370</t>
+  </si>
+  <si>
+    <t>TV 1.80MM-70MC</t>
+  </si>
+  <si>
+    <t>67301100-245</t>
+  </si>
+  <si>
+    <t>000000000040002414</t>
+  </si>
+  <si>
+    <t>TV 1.80MM-83HC</t>
+  </si>
+  <si>
+    <t>67302200-196</t>
+  </si>
+  <si>
+    <t>000000000040002416</t>
+  </si>
+  <si>
+    <t>TV 2.00MM-83HC</t>
+  </si>
+  <si>
+    <t>sgarip</t>
+  </si>
+  <si>
+    <t>67723300-25</t>
+  </si>
+  <si>
+    <t>000000000040002729</t>
+  </si>
+  <si>
+    <t>TG 1.85MM-KT_AB-83HC</t>
+  </si>
+  <si>
+    <t>67305400-841</t>
+  </si>
+  <si>
+    <t>67305400-842</t>
+  </si>
+  <si>
+    <t>000000000040002424</t>
+  </si>
+  <si>
+    <t>TV 3.20MM-83HC</t>
+  </si>
+  <si>
+    <t>74545800-82</t>
+  </si>
+  <si>
+    <t>000000000040002746</t>
+  </si>
+  <si>
+    <t>TG 5.10MM-KT_B-83HC</t>
+  </si>
+  <si>
+    <t>000000000040002778</t>
+  </si>
+  <si>
+    <t>TG 5.10MM-KT_C-83HC</t>
+  </si>
+  <si>
+    <t>67301100-242</t>
+  </si>
+  <si>
+    <t>67306200-458</t>
+  </si>
+  <si>
+    <t>67304700-522</t>
+  </si>
+  <si>
+    <t>000000000040002379</t>
+  </si>
+  <si>
+    <t>TV 3.00MM-70MC</t>
+  </si>
+  <si>
+    <t>67301300-722</t>
+  </si>
+  <si>
+    <t>67303900-854</t>
+  </si>
+  <si>
+    <t>67305400-845</t>
+  </si>
+  <si>
+    <t>67303700-110</t>
+  </si>
+  <si>
+    <t>67308200-347</t>
+  </si>
+  <si>
+    <t>000000000040002431</t>
+  </si>
+  <si>
+    <t>TV 4.25MM-83HC</t>
+  </si>
+  <si>
+    <t>000000000040002432</t>
+  </si>
+  <si>
+    <t>TV 4.50MM-83HC</t>
+  </si>
+  <si>
+    <t>67299800-111</t>
+  </si>
+  <si>
+    <t>67300500-186</t>
+  </si>
+  <si>
+    <t>000000000040002369</t>
+  </si>
+  <si>
+    <t>TV 1.65MM-70MC</t>
+  </si>
+  <si>
+    <t>67303900-858</t>
+  </si>
+  <si>
+    <t>apankaduz</t>
+  </si>
+  <si>
+    <t>67303900-856</t>
+  </si>
+  <si>
+    <t>74545800-73</t>
+  </si>
+  <si>
+    <t>68849900-132</t>
+  </si>
+  <si>
+    <t>000000000040002724</t>
+  </si>
+  <si>
+    <t>TG 4.10MM-KT_B-70MC</t>
+  </si>
+  <si>
+    <t>67307800-486</t>
+  </si>
+  <si>
+    <t>000000000040002429</t>
+  </si>
+  <si>
+    <t>TV 4.00MM-83HC</t>
+  </si>
+  <si>
+    <t>000000000040002428</t>
+  </si>
+  <si>
+    <t>TV 3.80MM-83HC</t>
+  </si>
+  <si>
+    <t>67305700-1208</t>
+  </si>
+  <si>
+    <t>67300900-222</t>
+  </si>
+  <si>
+    <t>67305700-1199</t>
+  </si>
+  <si>
     <t>000000000040002715</t>
   </si>
   <si>
     <t>TG 2.30MM-KT_B-70MC</t>
   </si>
   <si>
-    <t>74545700-30</t>
-  </si>
-  <si>
-    <t>000000000040002726</t>
-  </si>
-  <si>
-    <t>TG 4.60MM-KT_B-70MC</t>
-  </si>
-  <si>
-    <t>000000000040002725</t>
-  </si>
-  <si>
-    <t>TG 4.10MM-KT_AB-70MC</t>
-  </si>
-  <si>
-    <t>68847000-110</t>
-  </si>
-  <si>
-    <t>000000000040002732</t>
-  </si>
-  <si>
-    <t>TG 2.30MM-KT_B-83HC</t>
-  </si>
-  <si>
-    <t>000000000040003137</t>
-  </si>
-  <si>
-    <t>TG 2.10MM-KT_AB-70MC</t>
-  </si>
-  <si>
-    <t>67304000-271</t>
-  </si>
-  <si>
-    <t>000000000040002400</t>
-  </si>
-  <si>
-    <t>TV 2.80MM-75MC</t>
-  </si>
-  <si>
-    <t>000000000040002373</t>
-  </si>
-  <si>
-    <t>TV 2.20MM-70MC</t>
-  </si>
-  <si>
-    <t>67301100-234</t>
-  </si>
-  <si>
-    <t>000000000040002414</t>
-  </si>
-  <si>
-    <t>TV 1.80MM-83HC</t>
-  </si>
-  <si>
-    <t>67305400-827</t>
-  </si>
-  <si>
-    <t>000000000040002380</t>
-  </si>
-  <si>
-    <t>TV 3.20MM-70MC</t>
-  </si>
-  <si>
-    <t>67305400-828</t>
-  </si>
-  <si>
-    <t>000000000040002428</t>
-  </si>
-  <si>
-    <t>TV 3.80MM-83HC</t>
-  </si>
-  <si>
-    <t>67305800-258</t>
+    <t>67305400-843</t>
+  </si>
+  <si>
+    <t>67302200-193</t>
+  </si>
+  <si>
+    <t>67302000-593</t>
+  </si>
+  <si>
+    <t>000000000040002372</t>
+  </si>
+  <si>
+    <t>TV 2.00MM-70MC</t>
+  </si>
+  <si>
+    <t>67300200-5</t>
+  </si>
+  <si>
+    <t>000000000040002368</t>
+  </si>
+  <si>
+    <t>TV 1.60MM-70MC</t>
+  </si>
+  <si>
+    <t>67303900-859</t>
+  </si>
+  <si>
+    <t>67302400-528</t>
+  </si>
+  <si>
+    <t>67305400-848</t>
+  </si>
+  <si>
+    <t>67794200-1468</t>
+  </si>
+  <si>
+    <t>67308200-406</t>
+  </si>
+  <si>
+    <t>67307800-470</t>
+  </si>
+  <si>
+    <t>68851300-118</t>
+  </si>
+  <si>
+    <t>70350700-157</t>
+  </si>
+  <si>
+    <t>000000000040002854</t>
+  </si>
+  <si>
+    <t>TG 4.10MM-KT_B-75MC</t>
+  </si>
+  <si>
+    <t>67299800-103</t>
+  </si>
+  <si>
+    <t>67306200-452</t>
+  </si>
+  <si>
+    <t>71673700-69</t>
+  </si>
+  <si>
+    <t>000000000040002922</t>
+  </si>
+  <si>
+    <t>TG 2.10MM-KT_B-70MC</t>
+  </si>
+  <si>
+    <t>67305700-1181</t>
+  </si>
+  <si>
+    <t>67299800-105</t>
+  </si>
+  <si>
+    <t>67306600-11</t>
+  </si>
+  <si>
+    <t>000000000040002361</t>
+  </si>
+  <si>
+    <t>TV 3.80MM-65MC</t>
+  </si>
+  <si>
+    <t>67303900-861</t>
+  </si>
+  <si>
+    <t>67307800-478</t>
+  </si>
+  <si>
+    <t>67286999-10137</t>
+  </si>
+  <si>
+    <t>000000000040002136</t>
+  </si>
+  <si>
+    <t>TF 5.50MM-70MC</t>
+  </si>
+  <si>
+    <t>000000000040002135</t>
+  </si>
+  <si>
+    <t>TF 5.50MM-65MC</t>
+  </si>
+  <si>
+    <t>67302400-530</t>
+  </si>
+  <si>
+    <t>67302000-592</t>
+  </si>
+  <si>
+    <t>67302600-211</t>
+  </si>
+  <si>
+    <t>000000000040002417</t>
+  </si>
+  <si>
+    <t>TV 2.20MM-83HC</t>
+  </si>
+  <si>
+    <t>67286999-10133</t>
+  </si>
+  <si>
+    <t>67299900-51</t>
+  </si>
+  <si>
+    <t>000000000040002410</t>
+  </si>
+  <si>
+    <t>TV 1.50MM-83HC</t>
+  </si>
+  <si>
+    <t>67308200-409</t>
+  </si>
+  <si>
+    <t>68849900-87</t>
+  </si>
+  <si>
+    <t>68851300-115</t>
+  </si>
+  <si>
+    <t>67308200-410</t>
+  </si>
+  <si>
+    <t>67303900-860</t>
+  </si>
+  <si>
+    <t>67307800-489</t>
+  </si>
+  <si>
+    <t>67303900-853</t>
+  </si>
+  <si>
+    <t>67286999-10128</t>
+  </si>
+  <si>
+    <t>67307800-481</t>
+  </si>
+  <si>
+    <t>67306200-485</t>
+  </si>
+  <si>
+    <t>68849900-131</t>
+  </si>
+  <si>
+    <t>67305700-1213</t>
+  </si>
+  <si>
+    <t>67303900-864</t>
+  </si>
+  <si>
+    <t>68846800-212</t>
+  </si>
+  <si>
+    <t>000000000040002766</t>
+  </si>
+  <si>
+    <t>TG 2.10MM-KT_C-70MC</t>
+  </si>
+  <si>
+    <t>67300500-140</t>
+  </si>
+  <si>
+    <t>67303900-862</t>
+  </si>
+  <si>
+    <t>67306600-14</t>
+  </si>
+  <si>
+    <t>000000000040002383</t>
+  </si>
+  <si>
+    <t>TV 4.00MM-70MC</t>
+  </si>
+  <si>
+    <t>67307800-488</t>
+  </si>
+  <si>
+    <t>67303900-865</t>
+  </si>
+  <si>
+    <t>67305800-257</t>
   </si>
   <si>
     <t>000000000040002381</t>
@@ -190,211 +583,124 @@
     <t>TV 3.50MM-70MC</t>
   </si>
   <si>
-    <t>85961900-19</t>
-  </si>
-  <si>
-    <t>000000000040003138</t>
-  </si>
-  <si>
-    <t>TG 2.90MM-KT_AB-70MC</t>
-  </si>
-  <si>
-    <t>000000000040002220</t>
-  </si>
-  <si>
-    <t>TG 2.60MM-KT_B-70MC</t>
-  </si>
-  <si>
-    <t>68849400-240</t>
-  </si>
-  <si>
-    <t>000000000040002722</t>
-  </si>
-  <si>
-    <t>TG 3.60MM-KT_B-70MC</t>
-  </si>
-  <si>
-    <t>67300700-196</t>
-  </si>
-  <si>
-    <t>000000000040002413</t>
-  </si>
-  <si>
-    <t>TV 1.70MM-83HC</t>
-  </si>
-  <si>
-    <t>000000000040002370</t>
-  </si>
-  <si>
-    <t>TV 1.80MM-70MC</t>
-  </si>
-  <si>
-    <t>67301300-658</t>
-  </si>
-  <si>
-    <t>000000000040002371</t>
-  </si>
-  <si>
-    <t>TV 1.90MM-70MC</t>
-  </si>
-  <si>
-    <t>67301300-719</t>
-  </si>
-  <si>
-    <t>67301100-232</t>
-  </si>
-  <si>
-    <t>67305400-834</t>
-  </si>
-  <si>
-    <t>67300500-135</t>
-  </si>
-  <si>
-    <t>000000000040002369</t>
-  </si>
-  <si>
-    <t>TV 1.65MM-70MC</t>
-  </si>
-  <si>
-    <t>67305400-833</t>
-  </si>
-  <si>
-    <t>sgarip</t>
-  </si>
-  <si>
-    <t>85961900-28</t>
-  </si>
-  <si>
-    <t>67300700-148</t>
-  </si>
-  <si>
-    <t>67303900-852</t>
-  </si>
-  <si>
-    <t>74545700-22</t>
-  </si>
-  <si>
-    <t>67301300-721</t>
-  </si>
-  <si>
-    <t>67303900-850</t>
-  </si>
-  <si>
-    <t>67304000-272</t>
-  </si>
-  <si>
-    <t>67302400-534</t>
-  </si>
-  <si>
-    <t>000000000040002418</t>
-  </si>
-  <si>
-    <t>TV 2.40MM-83HC</t>
-  </si>
-  <si>
-    <t>67303900-848</t>
-  </si>
-  <si>
-    <t>68849900-135</t>
-  </si>
-  <si>
-    <t>67301100-244</t>
-  </si>
-  <si>
-    <t>67311800-395</t>
-  </si>
-  <si>
-    <t>000000000040002341</t>
-  </si>
-  <si>
-    <t>TV 7.00MM-83HC</t>
-  </si>
-  <si>
-    <t>000000000040002342</t>
-  </si>
-  <si>
-    <t>TV 8.00MM-83HC</t>
-  </si>
-  <si>
-    <t>000000000040002421</t>
-  </si>
-  <si>
-    <t>TV 2.80MM-83HC</t>
-  </si>
-  <si>
-    <t>67305800-220</t>
-  </si>
-  <si>
-    <t>67301100-237</t>
-  </si>
-  <si>
-    <t>67301100-242</t>
-  </si>
-  <si>
-    <t>000000000040002411</t>
-  </si>
-  <si>
-    <t>TV 1.55MM-83HC</t>
-  </si>
-  <si>
-    <t>74545700-21</t>
-  </si>
-  <si>
-    <t>000000000040002728</t>
-  </si>
-  <si>
-    <t>TG 1.85MM-KT_B-83HC</t>
-  </si>
-  <si>
-    <t>67723300-27</t>
-  </si>
-  <si>
-    <t>000000000040002424</t>
-  </si>
-  <si>
-    <t>TV 3.20MM-83HC</t>
-  </si>
-  <si>
-    <t>67299800-104</t>
-  </si>
-  <si>
-    <t>apankaduz</t>
-  </si>
-  <si>
-    <t>67300400-53</t>
-  </si>
-  <si>
-    <t>000000000040002412</t>
-  </si>
-  <si>
-    <t>TV 1.60MM-83HC</t>
-  </si>
-  <si>
-    <t>79717800-7</t>
-  </si>
-  <si>
-    <t>000000000040000894</t>
-  </si>
-  <si>
-    <t>HT 2.25MM-CT-KY180</t>
-  </si>
-  <si>
-    <t>000000000040001986</t>
-  </si>
-  <si>
-    <t>HT 2.25MM-CT-KY220</t>
-  </si>
-  <si>
-    <t>2275</t>
-  </si>
-  <si>
-    <t>68849900-137</t>
-  </si>
-  <si>
-    <t>67301300-604</t>
-  </si>
-  <si>
-    <t>67307000-96</t>
+    <t>67304700-527</t>
+  </si>
+  <si>
+    <t>67723300-60</t>
+  </si>
+  <si>
+    <t>68849900-155</t>
+  </si>
+  <si>
+    <t>67300500-141</t>
+  </si>
+  <si>
+    <t>67286999-10126</t>
+  </si>
+  <si>
+    <t>67307800-484</t>
+  </si>
+  <si>
+    <t>67307500-387</t>
+  </si>
+  <si>
+    <t>67303900-863</t>
+  </si>
+  <si>
+    <t>67307800-490</t>
+  </si>
+  <si>
+    <t>67308200-412</t>
+  </si>
+  <si>
+    <t>000000000040002434</t>
+  </si>
+  <si>
+    <t>TV 4.80MM-83HC</t>
+  </si>
+  <si>
+    <t>67307800-485</t>
+  </si>
+  <si>
+    <t>85370900-21</t>
+  </si>
+  <si>
+    <t>000000000040003333</t>
+  </si>
+  <si>
+    <t>TG 8.60MM-KT_C-83HC</t>
+  </si>
+  <si>
+    <t>000000000040002291</t>
+  </si>
+  <si>
+    <t>TG 9.10MM-KT_B-83HC</t>
+  </si>
+  <si>
+    <t>67307700-233</t>
+  </si>
+  <si>
+    <t>000000000040002405</t>
+  </si>
+  <si>
+    <t>TV 4.00MM-75MC</t>
+  </si>
+  <si>
+    <t>74545800-71</t>
+  </si>
+  <si>
+    <t>67299800-110</t>
+  </si>
+  <si>
+    <t>67286999-10131</t>
+  </si>
+  <si>
+    <t>67306000-225</t>
+  </si>
+  <si>
+    <t>000000000040002403</t>
+  </si>
+  <si>
+    <t>TV 3.50MM-75MC</t>
+  </si>
+  <si>
+    <t>67303900-869</t>
+  </si>
+  <si>
+    <t>67302600-213</t>
+  </si>
+  <si>
+    <t>67300600-3111</t>
+  </si>
+  <si>
+    <t>000000000040002349</t>
+  </si>
+  <si>
+    <t>TV 1.70MM-45MC</t>
+  </si>
+  <si>
+    <t>000000000040002346</t>
+  </si>
+  <si>
+    <t>TV 1.20MM-45MC</t>
+  </si>
+  <si>
+    <t>85370900-16</t>
+  </si>
+  <si>
+    <t>67303900-866</t>
+  </si>
+  <si>
+    <t>67303900-868</t>
+  </si>
+  <si>
+    <t>67302600-215</t>
+  </si>
+  <si>
+    <t>67300500-143</t>
+  </si>
+  <si>
+    <t>67307000-103</t>
   </si>
   <si>
     <t>000000000040002404</t>
@@ -403,106 +709,112 @@
     <t>TV 3.80MM-75MC</t>
   </si>
   <si>
-    <t>000000000040002383</t>
-  </si>
-  <si>
-    <t>TV 4.00MM-70MC</t>
-  </si>
-  <si>
-    <t>67304000-265</t>
-  </si>
-  <si>
-    <t>67306000-248</t>
-  </si>
-  <si>
-    <t>000000000040002403</t>
-  </si>
-  <si>
-    <t>TV 3.50MM-75MC</t>
-  </si>
-  <si>
-    <t>67302200-195</t>
-  </si>
-  <si>
-    <t>000000000040002416</t>
-  </si>
-  <si>
-    <t>TV 2.00MM-83HC</t>
-  </si>
-  <si>
-    <t>000000000040002417</t>
-  </si>
-  <si>
-    <t>TV 2.20MM-83HC</t>
-  </si>
-  <si>
-    <t>67303900-846</t>
-  </si>
-  <si>
-    <t>67286999-10162</t>
-  </si>
-  <si>
-    <t>000000000040002136</t>
-  </si>
-  <si>
-    <t>TF 5.50MM-70MC</t>
-  </si>
-  <si>
-    <t>000000000040002339</t>
-  </si>
-  <si>
-    <t>TV 5.50MM-83HC</t>
-  </si>
-  <si>
-    <t>79717800-5</t>
-  </si>
-  <si>
-    <t>000000000040002716</t>
-  </si>
-  <si>
-    <t>TG 2.30MM-KT_AB-70MC</t>
-  </si>
-  <si>
-    <t>67303900-855</t>
-  </si>
-  <si>
-    <t>68850600-290</t>
-  </si>
-  <si>
-    <t>67304000-273</t>
-  </si>
-  <si>
-    <t>67306200-474</t>
-  </si>
-  <si>
-    <t>000000000040002426</t>
-  </si>
-  <si>
-    <t>TV 3.50MM-83HC</t>
-  </si>
-  <si>
-    <t>74545700-19</t>
-  </si>
-  <si>
-    <t>67301300-675</t>
-  </si>
-  <si>
-    <t>67305400-838</t>
-  </si>
-  <si>
-    <t>67405900-42</t>
-  </si>
-  <si>
-    <t>000000000040002544</t>
-  </si>
-  <si>
-    <t>PRV 1.50MM-75MC</t>
-  </si>
-  <si>
-    <t>67305400-839</t>
-  </si>
-  <si>
-    <t>67723300-26</t>
+    <t>67308200-413</t>
+  </si>
+  <si>
+    <t>67307500-388</t>
+  </si>
+  <si>
+    <t>67303900-871</t>
+  </si>
+  <si>
+    <t>67305400-855</t>
+  </si>
+  <si>
+    <t>67794200-1472</t>
+  </si>
+  <si>
+    <t>67307000-75</t>
+  </si>
+  <si>
+    <t>67307800-492</t>
+  </si>
+  <si>
+    <t>67723300-29</t>
+  </si>
+  <si>
+    <t>67286999-10125</t>
+  </si>
+  <si>
+    <t>85370900-23</t>
+  </si>
+  <si>
+    <t>85370900-24</t>
+  </si>
+  <si>
+    <t>67286999-10115</t>
+  </si>
+  <si>
+    <t>67303300-102</t>
+  </si>
+  <si>
+    <t>000000000040002398</t>
+  </si>
+  <si>
+    <t>TV 2.50MM-75MC</t>
+  </si>
+  <si>
+    <t>67307500-389</t>
+  </si>
+  <si>
+    <t>85370900-30</t>
+  </si>
+  <si>
+    <t>67305700-1159</t>
+  </si>
+  <si>
+    <t>67308200-408</t>
+  </si>
+  <si>
+    <t>67307800-493</t>
+  </si>
+  <si>
+    <t>67306200-380</t>
+  </si>
+  <si>
+    <t>67302600-214</t>
+  </si>
+  <si>
+    <t>67286999-10122</t>
+  </si>
+  <si>
+    <t>67305700-1217</t>
+  </si>
+  <si>
+    <t>67303900-873</t>
+  </si>
+  <si>
+    <t>67300500-142</t>
+  </si>
+  <si>
+    <t>85370900-17</t>
+  </si>
+  <si>
+    <t>85370900-18</t>
+  </si>
+  <si>
+    <t>67303300-101</t>
+  </si>
+  <si>
+    <t>67307800-495</t>
+  </si>
+  <si>
+    <t>67303300-103</t>
+  </si>
+  <si>
+    <t>67308200-411</t>
+  </si>
+  <si>
+    <t>68849900-153</t>
+  </si>
+  <si>
+    <t>68849900-86</t>
+  </si>
+  <si>
+    <t>67303300-107</t>
+  </si>
+  <si>
+    <t>67308800-367</t>
   </si>
 </sst>
 </file>
@@ -547,7 +859,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{A66B6F3D-02E9-486D-BD9E-A725527065D7}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{8EF04364-3AFF-4D0C-90F1-1CEF5BC72575}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -561,8 +873,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K81">
-  <autoFilter ref="A1:K81" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K195">
+  <autoFilter ref="A1:K195" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STATÜ KODU"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="BARKOD NUMARASI"/>
@@ -897,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +1270,7 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>861312</v>
+        <v>852307</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -967,10 +1279,10 @@
         <v>16</v>
       </c>
       <c r="H2">
-        <v>30935.971223021599</v>
+        <v>8384.9599999999991</v>
       </c>
       <c r="I2" s="1">
-        <v>46009.352199074099</v>
+        <v>46010.347951388903</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -990,7 +1302,7 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>870372</v>
+        <v>870829</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -999,13 +1311,13 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>9458.92</v>
+        <v>4625.0341269841001</v>
       </c>
       <c r="I3" s="1">
-        <v>46009.362407407403</v>
+        <v>46010.355173611097</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1013,31 +1325,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4">
+        <v>871656</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="E4">
-        <v>868979</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
       <c r="H4">
-        <v>23022</v>
+        <v>3293.34</v>
       </c>
       <c r="I4" s="1">
-        <v>46009.362696759301</v>
+        <v>46010.355567129598</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1045,31 +1357,31 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5">
+        <v>872402</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="E5">
-        <v>871656</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5">
+        <v>7959.6442152465897</v>
+      </c>
+      <c r="I5" s="1">
+        <v>46010.3769328704</v>
+      </c>
+      <c r="J5" t="s">
         <v>33</v>
-      </c>
-      <c r="H5">
-        <v>7970</v>
-      </c>
-      <c r="I5" s="1">
-        <v>46009.371006944399</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1086,7 +1398,7 @@
         <v>36</v>
       </c>
       <c r="E6">
-        <v>871686</v>
+        <v>859225</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -1095,13 +1407,13 @@
         <v>38</v>
       </c>
       <c r="H6">
-        <v>22853</v>
+        <v>14688.063381295</v>
       </c>
       <c r="I6" s="1">
-        <v>46009.391805555599</v>
+        <v>46010.379976851902</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1112,28 +1424,28 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>870314</v>
+      </c>
+      <c r="F7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>41</v>
       </c>
-      <c r="E7">
-        <v>870363</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
       <c r="H7">
-        <v>8770.65</v>
+        <v>3696.98</v>
       </c>
       <c r="I7" s="1">
-        <v>46009.392141203702</v>
+        <v>46010.437893518501</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1141,28 +1453,28 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
       <c r="E8">
-        <v>866496</v>
+        <v>859225</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>30500</v>
+        <v>2900</v>
       </c>
       <c r="I8" s="1">
-        <v>46009.403148148202</v>
+        <v>46010.454953703702</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
@@ -1173,31 +1485,31 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>870300</v>
+        <v>862462</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>4717.37</v>
+        <v>2060</v>
       </c>
       <c r="I9" s="1">
-        <v>46009.412673611099</v>
+        <v>46010.462986111103</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1205,31 +1517,31 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>871644</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10">
-        <v>865699</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>52</v>
-      </c>
       <c r="H10">
-        <v>8763.7800000000007</v>
+        <v>19545</v>
       </c>
       <c r="I10" s="1">
-        <v>46009.440752314797</v>
+        <v>46010.463692129597</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1237,28 +1549,28 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>871581</v>
+      </c>
+      <c r="F11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>55</v>
       </c>
-      <c r="E11">
-        <v>861823</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
       <c r="H11">
-        <v>14126.9841269841</v>
+        <v>1053.48999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>46009.449710648201</v>
+        <v>46010.4748958333</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
@@ -1269,31 +1581,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>868908</v>
+        <v>862462</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H12">
-        <v>14837</v>
+        <v>2580.98</v>
       </c>
       <c r="I12" s="1">
-        <v>46009.476817129602</v>
+        <v>46010.560856481497</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1301,31 +1613,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E13">
-        <v>872862</v>
+        <v>871301</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <v>10491.79</v>
+      </c>
+      <c r="I13" s="1">
+        <v>46010.561076388898</v>
+      </c>
+      <c r="J13" t="s">
         <v>33</v>
-      </c>
-      <c r="H13">
-        <v>13292</v>
-      </c>
-      <c r="I13" s="1">
-        <v>46009.4774189815</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1333,31 +1645,31 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>872389</v>
+        <v>862462</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="H14">
-        <v>10532.180111731799</v>
+        <v>9099</v>
       </c>
       <c r="I14" s="1">
-        <v>46009.536655092597</v>
+        <v>46010.566793981503</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1365,31 +1677,31 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E15">
-        <v>872385</v>
+        <v>859221</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H15">
-        <v>3005.2804932734998</v>
+        <v>9048.08</v>
       </c>
       <c r="I15" s="1">
-        <v>46009.5398263889</v>
+        <v>46010.578020833302</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1397,31 +1709,31 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E16">
-        <v>872385</v>
+        <v>868327</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>9193</v>
+        <v>4748.0042152465903</v>
       </c>
       <c r="I16" s="1">
-        <v>46009.540023148104</v>
+        <v>46010.605416666702</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1429,31 +1741,31 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E17">
-        <v>871348</v>
+        <v>868327</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>29000</v>
+        <v>10620.27</v>
       </c>
       <c r="I17" s="1">
-        <v>46009.5411805556</v>
+        <v>46010.606284722198</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1461,31 +1773,31 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E18">
-        <v>863464</v>
+        <v>861389</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H18">
-        <v>17007.63</v>
+        <v>19661.169999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>46009.546238425901</v>
+        <v>46010.684050925898</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1493,31 +1805,31 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
         <v>48</v>
       </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
       <c r="E19">
-        <v>870300</v>
+        <v>872866</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="H19">
-        <v>10507</v>
+        <v>21104</v>
       </c>
       <c r="I19" s="1">
-        <v>46009.559699074103</v>
+        <v>46010.731157407397</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1525,31 +1837,31 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>872406</v>
+        <v>870323</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>16190.4761904762</v>
+        <v>7001.02</v>
       </c>
       <c r="I20" s="1">
-        <v>46009.602800925903</v>
+        <v>46010.7345138889</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1557,31 +1869,31 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E21">
-        <v>870384</v>
+        <v>864968</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H21">
-        <v>9019</v>
+        <v>3389.44</v>
       </c>
       <c r="I21" s="1">
-        <v>46009.606909722199</v>
+        <v>46010.741388888899</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1589,31 +1901,31 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E22">
-        <v>868883</v>
+        <v>872380</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H22">
-        <v>19954.3</v>
+        <v>7442.27</v>
       </c>
       <c r="I22" s="1">
-        <v>46009.631724537001</v>
+        <v>46010.750335648103</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1621,31 +1933,31 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="E23">
-        <v>861793</v>
+        <v>860916</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H23">
-        <v>9482.34</v>
+        <v>3358.1</v>
       </c>
       <c r="I23" s="1">
-        <v>46009.635381944398</v>
+        <v>46010.780219907399</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1653,31 +1965,31 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E24">
-        <v>870350</v>
+        <v>872337</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="H24">
-        <v>7932.48</v>
+        <v>24295.16</v>
       </c>
       <c r="I24" s="1">
-        <v>46009.705891203703</v>
+        <v>46010.799004629604</v>
       </c>
       <c r="J24" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1685,31 +1997,31 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E25">
-        <v>871652</v>
+        <v>859212</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H25">
-        <v>20424</v>
+        <v>16082.91</v>
       </c>
       <c r="I25" s="1">
-        <v>46009.711168981499</v>
+        <v>46010.809594907398</v>
       </c>
       <c r="J25" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1717,31 +2029,31 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>866496</v>
+        <v>861916</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H26">
-        <v>32513.966480446899</v>
+        <v>3174.1828571429</v>
       </c>
       <c r="I26" s="1">
-        <v>46009.727858796301</v>
+        <v>46010.815902777802</v>
       </c>
       <c r="J26" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1749,31 +2061,31 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="E27">
-        <v>872410</v>
+        <v>870334</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H27">
-        <v>15083</v>
+        <v>14652.1</v>
       </c>
       <c r="I27" s="1">
-        <v>46009.732152777797</v>
+        <v>46010.817789351902</v>
       </c>
       <c r="J27" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1781,31 +2093,31 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28">
+        <v>872380</v>
+      </c>
+      <c r="F28" t="s">
         <v>31</v>
       </c>
-      <c r="E28">
-        <v>871656</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>32</v>
       </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
       <c r="H28">
-        <v>6399</v>
+        <v>22422</v>
       </c>
       <c r="I28" s="1">
-        <v>46009.740624999999</v>
+        <v>46010.855729166702</v>
       </c>
       <c r="J28" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1813,31 +2125,31 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E29">
-        <v>872402</v>
+        <v>859231</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="H29">
-        <v>11301</v>
+        <v>11145.08</v>
       </c>
       <c r="I29" s="1">
-        <v>46009.775798611103</v>
+        <v>46010.8858680556</v>
       </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1845,31 +2157,31 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E30">
-        <v>870372</v>
+        <v>862462</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H30">
-        <v>9546</v>
+        <v>10444</v>
       </c>
       <c r="I30" s="1">
-        <v>46009.786620370403</v>
+        <v>46010.8985763889</v>
       </c>
       <c r="J30" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1877,16 +2189,16 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E31">
-        <v>861627</v>
+        <v>871301</v>
       </c>
       <c r="F31" t="s">
         <v>21</v>
@@ -1895,13 +2207,13 @@
         <v>22</v>
       </c>
       <c r="H31">
-        <v>16777</v>
+        <v>6715</v>
       </c>
       <c r="I31" s="1">
-        <v>46009.793726851902</v>
+        <v>46010.8993402778</v>
       </c>
       <c r="J31" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1909,31 +2221,31 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E32">
-        <v>870924</v>
+        <v>870439</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="H32">
-        <v>606.270000000001</v>
+        <v>7002</v>
       </c>
       <c r="I32" s="1">
-        <v>46009.793946759302</v>
+        <v>46010.903043981503</v>
       </c>
       <c r="J32" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1941,31 +2253,31 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E33">
-        <v>870924</v>
+        <v>846805</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H33">
-        <v>15920</v>
+        <v>10935.251798561199</v>
       </c>
       <c r="I33" s="1">
-        <v>46009.7961574074</v>
+        <v>46010.941666666702</v>
       </c>
       <c r="J33" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1973,31 +2285,31 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="E34">
-        <v>855116</v>
+        <v>872090</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="H34">
-        <v>15462.06</v>
+        <v>5874.66</v>
       </c>
       <c r="I34" s="1">
-        <v>46009.802777777797</v>
+        <v>46010.951747685198</v>
       </c>
       <c r="J34" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2005,31 +2317,31 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="E35">
-        <v>870860</v>
+        <v>872406</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H35">
-        <v>3814.26</v>
+        <v>20238.0952380952</v>
       </c>
       <c r="I35" s="1">
-        <v>46009.803761574098</v>
+        <v>46010.955497685201</v>
       </c>
       <c r="J35" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2037,31 +2349,31 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E36">
-        <v>868904</v>
+        <v>871301</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="H36">
-        <v>4018.4</v>
+        <v>8265</v>
       </c>
       <c r="I36" s="1">
-        <v>46009.804108796299</v>
+        <v>46010.969212962998</v>
       </c>
       <c r="J36" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2069,31 +2381,31 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E37">
-        <v>868991</v>
+        <v>871361</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="H37">
-        <v>9363</v>
+        <v>9462.17</v>
       </c>
       <c r="I37" s="1">
-        <v>46009.809502314798</v>
+        <v>46011.006562499999</v>
       </c>
       <c r="J37" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2101,31 +2413,31 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E38">
-        <v>871348</v>
+        <v>872410</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H38">
-        <v>29800</v>
+        <v>7542</v>
       </c>
       <c r="I38" s="1">
-        <v>46009.8103819444</v>
+        <v>46011.022777777798</v>
       </c>
       <c r="J38" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2133,31 +2445,31 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E39">
-        <v>864668</v>
+        <v>846797</v>
       </c>
       <c r="F39" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>6187</v>
+        <v>16249.6652380952</v>
       </c>
       <c r="I39" s="1">
-        <v>46009.811087962997</v>
+        <v>46011.054930555598</v>
       </c>
       <c r="J39" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2168,28 +2480,28 @@
         <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E40">
-        <v>868740</v>
+        <v>872342</v>
       </c>
       <c r="F40" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="G40" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="H40">
-        <v>14369.58</v>
+        <v>11400.05</v>
       </c>
       <c r="I40" s="1">
-        <v>46009.8133101852</v>
+        <v>46011.055578703701</v>
       </c>
       <c r="J40" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2197,31 +2509,31 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E41">
-        <v>868335</v>
+        <v>871374</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="H41">
-        <v>14184.15</v>
+        <v>9211.84</v>
       </c>
       <c r="I41" s="1">
-        <v>46009.817638888897</v>
+        <v>46011.059652777803</v>
       </c>
       <c r="J41" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2229,31 +2541,31 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="E42">
-        <v>841284</v>
+        <v>860916</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="H42">
-        <v>1106.52</v>
+        <v>4739</v>
       </c>
       <c r="I42" s="1">
-        <v>46009.818263888897</v>
+        <v>46011.069560185198</v>
       </c>
       <c r="J42" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2261,31 +2573,31 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E43">
-        <v>861823</v>
+        <v>872788</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="H43">
-        <v>5608.4656084656099</v>
+        <v>8591</v>
       </c>
       <c r="I43" s="1">
-        <v>46009.827442129601</v>
+        <v>46011.070104166698</v>
       </c>
       <c r="J43" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2293,31 +2605,31 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44">
+        <v>861924</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44">
+        <v>5264.59</v>
+      </c>
+      <c r="I44" s="1">
+        <v>46011.074178240699</v>
+      </c>
+      <c r="J44" t="s">
         <v>101</v>
-      </c>
-      <c r="C44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44">
-        <v>872385</v>
-      </c>
-      <c r="F44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44">
-        <v>15315.599999999995</v>
-      </c>
-      <c r="I44" s="1">
-        <v>46009.869108796302</v>
-      </c>
-      <c r="J44" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2325,31 +2637,31 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="E45">
-        <v>834966</v>
+        <v>865269</v>
       </c>
       <c r="F45" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G45" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H45">
-        <v>28300</v>
+        <v>8764</v>
       </c>
       <c r="I45" s="1">
-        <v>46009.886215277802</v>
+        <v>46011.078298611101</v>
       </c>
       <c r="J45" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2357,31 +2669,31 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="E46">
-        <v>871656</v>
+        <v>865683</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H46">
-        <v>9273</v>
+        <v>14557</v>
       </c>
       <c r="I46" s="1">
-        <v>46009.934178240699</v>
+        <v>46011.082314814797</v>
       </c>
       <c r="J46" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2389,31 +2701,31 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E47">
-        <v>868975</v>
+        <v>872402</v>
       </c>
       <c r="F47" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="H47">
-        <v>13232.37</v>
+        <v>13929</v>
       </c>
       <c r="I47" s="1">
-        <v>46009.949490740699</v>
+        <v>46011.084907407399</v>
       </c>
       <c r="J47" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2421,31 +2733,31 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="E48">
-        <v>852307</v>
+        <v>872346</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H48">
-        <v>5214.22</v>
+        <v>14614.9252380952</v>
       </c>
       <c r="I48" s="1">
-        <v>46009.949861111098</v>
+        <v>46011.129155092603</v>
       </c>
       <c r="J48" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2453,31 +2765,31 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="E49">
-        <v>868904</v>
+        <v>872090</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H49">
-        <v>17794</v>
+        <v>5139.59</v>
       </c>
       <c r="I49" s="1">
-        <v>46009.967395833301</v>
+        <v>46011.129837963003</v>
       </c>
       <c r="J49" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2485,31 +2797,31 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E50">
-        <v>863978</v>
+        <v>868879</v>
       </c>
       <c r="F50" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G50" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H50">
-        <v>2503.55560846561</v>
+        <v>7945.87</v>
       </c>
       <c r="I50" s="1">
-        <v>46009.967650462997</v>
+        <v>46011.139965277798</v>
       </c>
       <c r="J50" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2517,31 +2829,31 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E51">
-        <v>868331</v>
+        <v>870855</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H51">
-        <v>28058.273381294999</v>
+        <v>3135.18</v>
       </c>
       <c r="I51" s="1">
-        <v>46010.0312962963</v>
+        <v>46011.141157407401</v>
       </c>
       <c r="J51" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2549,31 +2861,31 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E52">
-        <v>872406</v>
+        <v>872333</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>34430.379746835402</v>
+        <v>19534.55</v>
       </c>
       <c r="I52" s="1">
-        <v>46010.031840277799</v>
+        <v>46011.1418402778</v>
       </c>
       <c r="J52" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2581,31 +2893,31 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="E53">
-        <v>870359</v>
+        <v>872342</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H53">
-        <v>4447.74</v>
+        <v>11337</v>
       </c>
       <c r="I53" s="1">
-        <v>46010.0324189815</v>
+        <v>46011.148310185199</v>
       </c>
       <c r="J53" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2613,31 +2925,31 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E54">
-        <v>864504</v>
+        <v>846805</v>
       </c>
       <c r="F54" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="H54">
-        <v>5360.99</v>
+        <v>10506.329113924099</v>
       </c>
       <c r="I54" s="1">
-        <v>46010.056284722203</v>
+        <v>46011.154791666697</v>
       </c>
       <c r="J54" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2645,31 +2957,31 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="E55">
-        <v>865843</v>
+        <v>872410</v>
       </c>
       <c r="F55" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="H55">
-        <v>4368</v>
+        <v>9298</v>
       </c>
       <c r="I55" s="1">
-        <v>46010.0616898148</v>
+        <v>46011.159745370402</v>
       </c>
       <c r="J55" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2677,31 +2989,31 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E56">
-        <v>871677</v>
+        <v>871370</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H56">
-        <v>13354.63</v>
+        <v>10740.2</v>
       </c>
       <c r="I56" s="1">
-        <v>46010.063599537003</v>
+        <v>46011.241597222201</v>
       </c>
       <c r="J56" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2709,31 +3021,31 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E57">
-        <v>868991</v>
+        <v>868840</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H57">
-        <v>11004</v>
+        <v>9257</v>
       </c>
       <c r="I57" s="1">
-        <v>46010.064849536997</v>
+        <v>46011.274386574099</v>
       </c>
       <c r="J57" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2741,31 +3053,31 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E58">
-        <v>859098</v>
+        <v>861819</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H58">
-        <v>16502.232645739899</v>
+        <v>12047</v>
       </c>
       <c r="I58" s="1">
-        <v>46010.065474536997</v>
+        <v>46011.275196759299</v>
       </c>
       <c r="J58" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2773,31 +3085,31 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C59" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D59" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="E59">
-        <v>861907</v>
+        <v>870439</v>
       </c>
       <c r="F59" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="G59" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="H59">
-        <v>12390.572390572401</v>
+        <v>7299</v>
       </c>
       <c r="I59" s="1">
-        <v>46010.066226851799</v>
+        <v>46011.293055555601</v>
       </c>
       <c r="J59" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2805,31 +3117,31 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="E60">
-        <v>872410</v>
+        <v>865269</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="G60" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="H60">
-        <v>16529</v>
+        <v>2027</v>
       </c>
       <c r="I60" s="1">
-        <v>46010.071608796301</v>
+        <v>46011.3074305556</v>
       </c>
       <c r="J60" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2837,31 +3149,31 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E61">
-        <v>861874</v>
+        <v>860916</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H61">
-        <v>12883.5978835979</v>
+        <v>4676</v>
       </c>
       <c r="I61" s="1">
-        <v>46010.090902777803</v>
+        <v>46011.349594907399</v>
       </c>
       <c r="J61" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2869,31 +3181,31 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" t="s">
         <v>133</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>134</v>
       </c>
-      <c r="D62" t="s">
-        <v>135</v>
-      </c>
       <c r="E62">
-        <v>866885</v>
+        <v>872788</v>
       </c>
       <c r="F62" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="G62" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="H62">
-        <v>12632</v>
+        <v>5309</v>
       </c>
       <c r="I62" s="1">
-        <v>46010.154791666697</v>
+        <v>46011.350115740701</v>
       </c>
       <c r="J62" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2901,31 +3213,31 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E63">
-        <v>859103</v>
+        <v>846805</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H63">
-        <v>3168.99999999999</v>
+        <v>25899.2805755396</v>
       </c>
       <c r="I63" s="1">
-        <v>46010.168113425898</v>
+        <v>46011.3588310185</v>
       </c>
       <c r="J63" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2933,31 +3245,31 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="E64">
-        <v>871145</v>
+        <v>865658</v>
       </c>
       <c r="F64" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="G64" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="H64">
-        <v>1197.3699999999999</v>
+        <v>10583</v>
       </c>
       <c r="I64" s="1">
-        <v>46010.194652777798</v>
+        <v>46011.362511574102</v>
       </c>
       <c r="J64" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2965,31 +3277,31 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="E65">
-        <v>869407</v>
+        <v>871152</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="H65">
-        <v>12632</v>
+        <v>10352.299999999999</v>
       </c>
       <c r="I65" s="1">
-        <v>46010.2262962963</v>
+        <v>46011.364166666703</v>
       </c>
       <c r="J65" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2997,31 +3309,31 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E66">
-        <v>859094</v>
+        <v>846801</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H66">
-        <v>1884.1299999999901</v>
+        <v>22631.400575539599</v>
       </c>
       <c r="I66" s="1">
-        <v>46010.226944444403</v>
+        <v>46011.368634259299</v>
       </c>
       <c r="J66" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3029,31 +3341,31 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D67" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E67">
-        <v>865843</v>
+        <v>871686</v>
       </c>
       <c r="F67" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="G67" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H67">
-        <v>4368</v>
+        <v>13341.875882352901</v>
       </c>
       <c r="I67" s="1">
-        <v>46010.232037037</v>
+        <v>46011.3719444444</v>
       </c>
       <c r="J67" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3061,31 +3373,31 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D68" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="E68">
-        <v>864628</v>
+        <v>871379</v>
       </c>
       <c r="F68" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="H68">
-        <v>2443.04</v>
+        <v>6965.54</v>
       </c>
       <c r="I68" s="1">
-        <v>46010.235787037003</v>
+        <v>46011.386550925898</v>
       </c>
       <c r="J68" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3093,31 +3405,31 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="E69">
-        <v>871640</v>
+        <v>871152</v>
       </c>
       <c r="F69" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="G69" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="H69">
-        <v>6707.23</v>
+        <v>2769.7664556961799</v>
       </c>
       <c r="I69" s="1">
-        <v>46010.236226851899</v>
+        <v>46011.388414351903</v>
       </c>
       <c r="J69" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3125,16 +3437,16 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E70">
-        <v>871644</v>
+        <v>872355</v>
       </c>
       <c r="F70" t="s">
         <v>37</v>
@@ -3143,13 +3455,13 @@
         <v>38</v>
       </c>
       <c r="H70">
-        <v>10810.51</v>
+        <v>30215.8273381295</v>
       </c>
       <c r="I70" s="1">
-        <v>46010.242384259298</v>
+        <v>46011.397569444402</v>
       </c>
       <c r="J70" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3157,31 +3469,31 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="E71">
-        <v>859085</v>
+        <v>862458</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H71">
-        <v>16943</v>
+        <v>14689.37</v>
       </c>
       <c r="I71" s="1">
-        <v>46010.246689814798</v>
+        <v>46011.398125</v>
       </c>
       <c r="J71" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3189,31 +3501,31 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="E72">
-        <v>871656</v>
+        <v>865298</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="H72">
-        <v>2721</v>
+        <v>9180.6958473625109</v>
       </c>
       <c r="I72" s="1">
-        <v>46010.264085648101</v>
+        <v>46011.399895833303</v>
       </c>
       <c r="J72" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3221,7 +3533,7 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C73" t="s">
         <v>40</v>
@@ -3230,22 +3542,22 @@
         <v>41</v>
       </c>
       <c r="E73">
-        <v>852307</v>
+        <v>861924</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H73">
-        <v>8384.9599999999991</v>
+        <v>17686</v>
       </c>
       <c r="I73" s="1">
-        <v>46010.347951388903</v>
+        <v>46011.401909722197</v>
       </c>
       <c r="J73" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3253,28 +3565,28 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="D74" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="E74">
-        <v>870829</v>
+        <v>865269</v>
       </c>
       <c r="F74" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="G74" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="H74">
-        <v>4625.0341269841001</v>
+        <v>7650</v>
       </c>
       <c r="I74" s="1">
-        <v>46010.355173611097</v>
+        <v>46011.401990740698</v>
       </c>
       <c r="J74" t="s">
         <v>17</v>
@@ -3285,28 +3597,28 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E75">
-        <v>871656</v>
+        <v>872359</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H75">
-        <v>3293.34</v>
+        <v>4798.28</v>
       </c>
       <c r="I75" s="1">
-        <v>46010.355567129598</v>
+        <v>46011.406909722202</v>
       </c>
       <c r="J75" t="s">
         <v>17</v>
@@ -3317,31 +3629,31 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="C76" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E76">
-        <v>872402</v>
+        <v>865724</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H76">
-        <v>7959.6442152465897</v>
+        <v>6471.37</v>
       </c>
       <c r="I76" s="1">
-        <v>46010.3769328704</v>
+        <v>46011.438067129602</v>
       </c>
       <c r="J76" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3349,31 +3661,31 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E77">
-        <v>859225</v>
+        <v>871301</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H77">
-        <v>14688.063381295</v>
+        <v>16070.23</v>
       </c>
       <c r="I77" s="1">
-        <v>46010.379976851902</v>
+        <v>46011.455092592601</v>
       </c>
       <c r="J77" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3381,31 +3693,31 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C78" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="D78" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="E78">
-        <v>870314</v>
+        <v>871741</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="G78" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="H78">
-        <v>3696.98</v>
+        <v>8526</v>
       </c>
       <c r="I78" s="1">
-        <v>46010.437893518501</v>
+        <v>46011.470671296302</v>
       </c>
       <c r="J78" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3413,16 +3725,16 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="D79" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="E79">
-        <v>859225</v>
+        <v>865013</v>
       </c>
       <c r="F79" t="s">
         <v>15</v>
@@ -3431,10 +3743,10 @@
         <v>16</v>
       </c>
       <c r="H79">
-        <v>2900</v>
+        <v>3533.42</v>
       </c>
       <c r="I79" s="1">
-        <v>46010.454953703702</v>
+        <v>46011.471064814803</v>
       </c>
       <c r="J79" t="s">
         <v>17</v>
@@ -3445,31 +3757,31 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C80" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D80" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E80">
-        <v>862462</v>
+        <v>865013</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H80">
-        <v>2060</v>
+        <v>13211</v>
       </c>
       <c r="I80" s="1">
-        <v>46010.462986111103</v>
+        <v>46011.471365740697</v>
       </c>
       <c r="J80" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3477,31 +3789,3679 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" t="s">
+        <v>121</v>
+      </c>
+      <c r="E81">
+        <v>862458</v>
+      </c>
+      <c r="F81" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81">
+        <v>21984</v>
+      </c>
+      <c r="I81" s="1">
+        <v>46011.4856365741</v>
+      </c>
+      <c r="J81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" t="s">
+        <v>155</v>
+      </c>
+      <c r="D82" t="s">
+        <v>156</v>
+      </c>
+      <c r="E82">
+        <v>865013</v>
+      </c>
+      <c r="F82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82">
+        <v>11037</v>
+      </c>
+      <c r="I82" s="1">
+        <v>46011.487557870401</v>
+      </c>
+      <c r="J82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" t="s">
+        <v>148</v>
+      </c>
+      <c r="D83" t="s">
+        <v>149</v>
+      </c>
+      <c r="E83">
+        <v>871741</v>
+      </c>
+      <c r="F83" t="s">
+        <v>150</v>
+      </c>
+      <c r="G83" t="s">
+        <v>151</v>
+      </c>
+      <c r="H83">
+        <v>8521</v>
+      </c>
+      <c r="I83" s="1">
+        <v>46011.547071759298</v>
+      </c>
+      <c r="J83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" t="s">
+        <v>159</v>
+      </c>
+      <c r="D84" t="s">
         <v>160</v>
       </c>
-      <c r="C81" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E84">
+        <v>861312</v>
+      </c>
+      <c r="F84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G84" t="s">
+        <v>38</v>
+      </c>
+      <c r="H84">
+        <v>33812.949640287799</v>
+      </c>
+      <c r="I84" s="1">
+        <v>46011.603379629603</v>
+      </c>
+      <c r="J84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" t="s">
+        <v>109</v>
+      </c>
+      <c r="E85">
+        <v>864976</v>
+      </c>
+      <c r="F85" t="s">
+        <v>110</v>
+      </c>
+      <c r="G85" t="s">
+        <v>111</v>
+      </c>
+      <c r="H85">
+        <v>5108.9199999999992</v>
+      </c>
+      <c r="I85" s="1">
+        <v>46011.608692129601</v>
+      </c>
+      <c r="J85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86">
+        <v>870439</v>
+      </c>
+      <c r="F86" t="s">
+        <v>94</v>
+      </c>
+      <c r="G86" t="s">
+        <v>95</v>
+      </c>
+      <c r="H86">
+        <v>6643</v>
+      </c>
+      <c r="I86" s="1">
+        <v>46011.609456018501</v>
+      </c>
+      <c r="J86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" t="s">
+        <v>160</v>
+      </c>
+      <c r="E87">
+        <v>872346</v>
+      </c>
+      <c r="F87" t="s">
+        <v>37</v>
+      </c>
+      <c r="G87" t="s">
+        <v>38</v>
+      </c>
+      <c r="H87">
+        <v>30886.019640287799</v>
+      </c>
+      <c r="I87" s="1">
+        <v>46011.614872685197</v>
+      </c>
+      <c r="J87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" t="s">
         <v>26</v>
       </c>
-      <c r="E81">
-        <v>871644</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="D88" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88">
+        <v>872788</v>
+      </c>
+      <c r="F88" t="s">
+        <v>105</v>
+      </c>
+      <c r="G88" t="s">
+        <v>106</v>
+      </c>
+      <c r="H88">
+        <v>8273</v>
+      </c>
+      <c r="I88" s="1">
+        <v>46011.628634259301</v>
+      </c>
+      <c r="J88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" t="s">
+        <v>79</v>
+      </c>
+      <c r="E89">
+        <v>860916</v>
+      </c>
+      <c r="F89" t="s">
+        <v>80</v>
+      </c>
+      <c r="G89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H89">
+        <v>6017</v>
+      </c>
+      <c r="I89" s="1">
+        <v>46011.657743055599</v>
+      </c>
+      <c r="J89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" t="s">
+        <v>93</v>
+      </c>
+      <c r="E90">
+        <v>870439</v>
+      </c>
+      <c r="F90" t="s">
+        <v>94</v>
+      </c>
+      <c r="G90" t="s">
+        <v>95</v>
+      </c>
+      <c r="H90">
+        <v>6634</v>
+      </c>
+      <c r="I90" s="1">
+        <v>46011.671550925901</v>
+      </c>
+      <c r="J90" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>165</v>
+      </c>
+      <c r="C91" t="s">
+        <v>40</v>
+      </c>
+      <c r="D91" t="s">
+        <v>41</v>
+      </c>
+      <c r="E91">
+        <v>871310</v>
+      </c>
+      <c r="F91" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91">
+        <v>7916.03</v>
+      </c>
+      <c r="I91" s="1">
+        <v>46011.6742592593</v>
+      </c>
+      <c r="J91" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>166</v>
+      </c>
+      <c r="C92" t="s">
+        <v>108</v>
+      </c>
+      <c r="D92" t="s">
+        <v>109</v>
+      </c>
+      <c r="E92">
+        <v>864976</v>
+      </c>
+      <c r="F92" t="s">
+        <v>110</v>
+      </c>
+      <c r="G92" t="s">
+        <v>111</v>
+      </c>
+      <c r="H92">
+        <v>9312</v>
+      </c>
+      <c r="I92" s="1">
+        <v>46011.696273148104</v>
+      </c>
+      <c r="J92" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" t="s">
+        <v>64</v>
+      </c>
+      <c r="D93" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93">
+        <v>872359</v>
+      </c>
+      <c r="F93" t="s">
+        <v>61</v>
+      </c>
+      <c r="G93" t="s">
+        <v>62</v>
+      </c>
+      <c r="H93">
+        <v>2022.61</v>
+      </c>
+      <c r="I93" s="1">
+        <v>46011.700439814798</v>
+      </c>
+      <c r="J93" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>153</v>
+      </c>
+      <c r="C94" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" t="s">
+        <v>121</v>
+      </c>
+      <c r="E94">
+        <v>859216</v>
+      </c>
+      <c r="F94" t="s">
+        <v>61</v>
+      </c>
+      <c r="G94" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94">
+        <v>18067.919999999998</v>
+      </c>
+      <c r="I94" s="1">
+        <v>46011.703379629602</v>
+      </c>
+      <c r="J94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>167</v>
+      </c>
+      <c r="C95" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95">
+        <v>871392</v>
+      </c>
+      <c r="F95" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95">
+        <v>6171.52</v>
+      </c>
+      <c r="I95" s="1">
+        <v>46011.705219907402</v>
+      </c>
+      <c r="J95" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96">
+        <v>869454</v>
+      </c>
+      <c r="F96" t="s">
+        <v>155</v>
+      </c>
+      <c r="G96" t="s">
+        <v>156</v>
+      </c>
+      <c r="H96">
+        <v>1217.0899999999999</v>
+      </c>
+      <c r="I96" s="1">
+        <v>46011.7098611111</v>
+      </c>
+      <c r="J96" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" t="s">
+        <v>148</v>
+      </c>
+      <c r="D97" t="s">
+        <v>149</v>
+      </c>
+      <c r="E97">
+        <v>871741</v>
+      </c>
+      <c r="F97" t="s">
+        <v>150</v>
+      </c>
+      <c r="G97" t="s">
+        <v>151</v>
+      </c>
+      <c r="H97">
+        <v>8558</v>
+      </c>
+      <c r="I97" s="1">
+        <v>46011.713946759301</v>
+      </c>
+      <c r="J97" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98" t="s">
+        <v>109</v>
+      </c>
+      <c r="E98">
+        <v>865281</v>
+      </c>
+      <c r="F98" t="s">
+        <v>75</v>
+      </c>
+      <c r="G98" t="s">
+        <v>76</v>
+      </c>
+      <c r="H98">
+        <v>6494.92</v>
+      </c>
+      <c r="I98" s="1">
+        <v>46011.716793981497</v>
+      </c>
+      <c r="J98" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" t="s">
+        <v>108</v>
+      </c>
+      <c r="D99" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99">
+        <v>871288</v>
+      </c>
+      <c r="F99" t="s">
+        <v>75</v>
+      </c>
+      <c r="G99" t="s">
+        <v>76</v>
+      </c>
+      <c r="H99">
+        <v>5513.68</v>
+      </c>
+      <c r="I99" s="1">
+        <v>46011.743113425902</v>
+      </c>
+      <c r="J99" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100" t="s">
+        <v>109</v>
+      </c>
+      <c r="E100">
+        <v>872122</v>
+      </c>
+      <c r="F100" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>22</v>
+      </c>
+      <c r="H100">
+        <v>4950.6899999999996</v>
+      </c>
+      <c r="I100" s="1">
+        <v>46011.7446180556</v>
+      </c>
+      <c r="J100" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>170</v>
+      </c>
+      <c r="C101" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101">
+        <v>872086</v>
+      </c>
+      <c r="F101" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101">
+        <v>5344</v>
+      </c>
+      <c r="I101" s="1">
+        <v>46011.746701388904</v>
+      </c>
+      <c r="J101" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>171</v>
+      </c>
+      <c r="C102" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102">
+        <v>872788</v>
+      </c>
+      <c r="F102" t="s">
+        <v>105</v>
+      </c>
+      <c r="G102" t="s">
+        <v>106</v>
+      </c>
+      <c r="H102">
+        <v>8688</v>
+      </c>
+      <c r="I102" s="1">
+        <v>46011.762013888903</v>
+      </c>
+      <c r="J102" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>172</v>
+      </c>
+      <c r="C103" t="s">
+        <v>75</v>
+      </c>
+      <c r="D103" t="s">
+        <v>76</v>
+      </c>
+      <c r="E103">
+        <v>865724</v>
+      </c>
+      <c r="F103" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103">
+        <v>7279</v>
+      </c>
+      <c r="I103" s="1">
+        <v>46011.767268518503</v>
+      </c>
+      <c r="J103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>46</v>
+      </c>
+      <c r="C104" t="s">
+        <v>47</v>
+      </c>
+      <c r="D104" t="s">
+        <v>48</v>
+      </c>
+      <c r="E104">
+        <v>872784</v>
+      </c>
+      <c r="F104" t="s">
+        <v>115</v>
+      </c>
+      <c r="G104" t="s">
+        <v>116</v>
+      </c>
+      <c r="H104">
+        <v>759.81</v>
+      </c>
+      <c r="I104" s="1">
+        <v>46011.768761574102</v>
+      </c>
+      <c r="J104" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105" t="s">
+        <v>41</v>
+      </c>
+      <c r="E105">
+        <v>852311</v>
+      </c>
+      <c r="F105" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105">
+        <v>7151.79</v>
+      </c>
+      <c r="I105" s="1">
+        <v>46011.774270833303</v>
+      </c>
+      <c r="J105" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>173</v>
+      </c>
+      <c r="C106" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" t="s">
+        <v>41</v>
+      </c>
+      <c r="E106">
+        <v>869454</v>
+      </c>
+      <c r="F106" t="s">
+        <v>155</v>
+      </c>
+      <c r="G106" t="s">
+        <v>156</v>
+      </c>
+      <c r="H106">
+        <v>7129</v>
+      </c>
+      <c r="I106" s="1">
+        <v>46011.784942129598</v>
+      </c>
+      <c r="J106" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" t="s">
+        <v>174</v>
+      </c>
+      <c r="C107" t="s">
+        <v>115</v>
+      </c>
+      <c r="D107" t="s">
+        <v>116</v>
+      </c>
+      <c r="E107">
+        <v>872814</v>
+      </c>
+      <c r="F107" t="s">
+        <v>175</v>
+      </c>
+      <c r="G107" t="s">
+        <v>176</v>
+      </c>
+      <c r="H107">
+        <v>28344</v>
+      </c>
+      <c r="I107" s="1">
+        <v>46011.7889236111</v>
+      </c>
+      <c r="J107" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
+        <v>119</v>
+      </c>
+      <c r="C108" t="s">
+        <v>120</v>
+      </c>
+      <c r="D108" t="s">
+        <v>121</v>
+      </c>
+      <c r="E108">
+        <v>872359</v>
+      </c>
+      <c r="F108" t="s">
+        <v>61</v>
+      </c>
+      <c r="G108" t="s">
+        <v>62</v>
+      </c>
+      <c r="H108">
+        <v>5329.5300000000007</v>
+      </c>
+      <c r="I108" s="1">
+        <v>46011.799965277802</v>
+      </c>
+      <c r="J108" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>172</v>
+      </c>
+      <c r="C109" t="s">
+        <v>75</v>
+      </c>
+      <c r="D109" t="s">
+        <v>76</v>
+      </c>
+      <c r="E109">
+        <v>871195</v>
+      </c>
+      <c r="F109" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109">
+        <v>4968.82</v>
+      </c>
+      <c r="I109" s="1">
+        <v>46011.802986111099</v>
+      </c>
+      <c r="J109" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
+        <v>177</v>
+      </c>
+      <c r="C110" t="s">
+        <v>98</v>
+      </c>
+      <c r="D110" t="s">
+        <v>99</v>
+      </c>
+      <c r="E110">
+        <v>872363</v>
+      </c>
+      <c r="F110" t="s">
         <v>37</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G110" t="s">
         <v>38</v>
       </c>
-      <c r="H81">
-        <v>19545</v>
-      </c>
-      <c r="I81" s="1">
-        <v>46010.463692129597</v>
-      </c>
-      <c r="J81" t="s">
-        <v>23</v>
+      <c r="H110">
+        <v>20239</v>
+      </c>
+      <c r="I110" s="1">
+        <v>46011.8129513889</v>
+      </c>
+      <c r="J110" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" t="s">
+        <v>178</v>
+      </c>
+      <c r="C111" t="s">
+        <v>40</v>
+      </c>
+      <c r="D111" t="s">
+        <v>41</v>
+      </c>
+      <c r="E111">
+        <v>872410</v>
+      </c>
+      <c r="F111" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111">
+        <v>8761</v>
+      </c>
+      <c r="I111" s="1">
+        <v>46011.816817129598</v>
+      </c>
+      <c r="J111" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>179</v>
+      </c>
+      <c r="C112" t="s">
+        <v>143</v>
+      </c>
+      <c r="D112" t="s">
+        <v>144</v>
+      </c>
+      <c r="E112">
+        <v>872097</v>
+      </c>
+      <c r="F112" t="s">
+        <v>180</v>
+      </c>
+      <c r="G112" t="s">
+        <v>181</v>
+      </c>
+      <c r="H112">
+        <v>3928.95622895623</v>
+      </c>
+      <c r="I112" s="1">
+        <v>46011.836863425902</v>
+      </c>
+      <c r="J112" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C113" t="s">
+        <v>108</v>
+      </c>
+      <c r="D113" t="s">
+        <v>109</v>
+      </c>
+      <c r="E113">
+        <v>864976</v>
+      </c>
+      <c r="F113" t="s">
+        <v>110</v>
+      </c>
+      <c r="G113" t="s">
+        <v>111</v>
+      </c>
+      <c r="H113">
+        <v>10386</v>
+      </c>
+      <c r="I113" s="1">
+        <v>46011.8736921296</v>
+      </c>
+      <c r="J113" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>183</v>
+      </c>
+      <c r="C114" t="s">
+        <v>40</v>
+      </c>
+      <c r="D114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E114">
+        <v>852311</v>
+      </c>
+      <c r="F114" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>16</v>
+      </c>
+      <c r="H114">
+        <v>8265</v>
+      </c>
+      <c r="I114" s="1">
+        <v>46011.932523148098</v>
+      </c>
+      <c r="J114" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" t="s">
+        <v>184</v>
+      </c>
+      <c r="C115" t="s">
+        <v>185</v>
+      </c>
+      <c r="D115" t="s">
+        <v>186</v>
+      </c>
+      <c r="E115">
+        <v>865017</v>
+      </c>
+      <c r="F115" t="s">
+        <v>75</v>
+      </c>
+      <c r="G115" t="s">
+        <v>76</v>
+      </c>
+      <c r="H115">
+        <v>12936.5079365079</v>
+      </c>
+      <c r="I115" s="1">
+        <v>46011.9354282407</v>
+      </c>
+      <c r="J115" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" t="s">
+        <v>184</v>
+      </c>
+      <c r="C116" t="s">
+        <v>185</v>
+      </c>
+      <c r="D116" t="s">
+        <v>186</v>
+      </c>
+      <c r="E116">
+        <v>865142</v>
+      </c>
+      <c r="F116" t="s">
+        <v>75</v>
+      </c>
+      <c r="G116" t="s">
+        <v>76</v>
+      </c>
+      <c r="H116">
+        <v>11652.0979365079</v>
+      </c>
+      <c r="I116" s="1">
+        <v>46011.946909722203</v>
+      </c>
+      <c r="J116" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>187</v>
+      </c>
+      <c r="C117" t="s">
+        <v>85</v>
+      </c>
+      <c r="D117" t="s">
+        <v>86</v>
+      </c>
+      <c r="E117">
+        <v>866858</v>
+      </c>
+      <c r="F117" t="s">
+        <v>85</v>
+      </c>
+      <c r="G117" t="s">
+        <v>86</v>
+      </c>
+      <c r="H117">
+        <v>5658</v>
+      </c>
+      <c r="I117" s="1">
+        <v>46011.954756944397</v>
+      </c>
+      <c r="J117" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>188</v>
+      </c>
+      <c r="C118" t="s">
+        <v>47</v>
+      </c>
+      <c r="D118" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118">
+        <v>872784</v>
+      </c>
+      <c r="F118" t="s">
+        <v>115</v>
+      </c>
+      <c r="G118" t="s">
+        <v>116</v>
+      </c>
+      <c r="H118">
+        <v>21583</v>
+      </c>
+      <c r="I118" s="1">
+        <v>46012.021712962996</v>
+      </c>
+      <c r="J118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" t="s">
+        <v>189</v>
+      </c>
+      <c r="C119" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" t="s">
+        <v>27</v>
+      </c>
+      <c r="E119">
+        <v>872788</v>
+      </c>
+      <c r="F119" t="s">
+        <v>105</v>
+      </c>
+      <c r="G119" t="s">
+        <v>106</v>
+      </c>
+      <c r="H119">
+        <v>8968</v>
+      </c>
+      <c r="I119" s="1">
+        <v>46012.025405092601</v>
+      </c>
+      <c r="J119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>190</v>
+      </c>
+      <c r="C120" t="s">
+        <v>98</v>
+      </c>
+      <c r="D120" t="s">
+        <v>99</v>
+      </c>
+      <c r="E120">
+        <v>872359</v>
+      </c>
+      <c r="F120" t="s">
+        <v>61</v>
+      </c>
+      <c r="G120" t="s">
+        <v>62</v>
+      </c>
+      <c r="H120">
+        <v>22917</v>
+      </c>
+      <c r="I120" s="1">
+        <v>46012.025763888902</v>
+      </c>
+      <c r="J120" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
+        <v>191</v>
+      </c>
+      <c r="C121" t="s">
+        <v>148</v>
+      </c>
+      <c r="D121" t="s">
+        <v>149</v>
+      </c>
+      <c r="E121">
+        <v>871741</v>
+      </c>
+      <c r="F121" t="s">
+        <v>150</v>
+      </c>
+      <c r="G121" t="s">
+        <v>151</v>
+      </c>
+      <c r="H121">
+        <v>8145</v>
+      </c>
+      <c r="I121" s="1">
+        <v>46012.034942129598</v>
+      </c>
+      <c r="J121" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s">
+        <v>192</v>
+      </c>
+      <c r="C122" t="s">
+        <v>108</v>
+      </c>
+      <c r="D122" t="s">
+        <v>109</v>
+      </c>
+      <c r="E122">
+        <v>871191</v>
+      </c>
+      <c r="F122" t="s">
+        <v>110</v>
+      </c>
+      <c r="G122" t="s">
+        <v>111</v>
+      </c>
+      <c r="H122">
+        <v>2606.65</v>
+      </c>
+      <c r="I122" s="1">
+        <v>46012.066539351901</v>
+      </c>
+      <c r="J122" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" t="s">
+        <v>193</v>
+      </c>
+      <c r="C123" t="s">
+        <v>180</v>
+      </c>
+      <c r="D123" t="s">
+        <v>181</v>
+      </c>
+      <c r="E123">
+        <v>863990</v>
+      </c>
+      <c r="F123" t="s">
+        <v>110</v>
+      </c>
+      <c r="G123" t="s">
+        <v>111</v>
+      </c>
+      <c r="H123">
+        <v>5068.7299999999996</v>
+      </c>
+      <c r="I123" s="1">
+        <v>46012.067060185203</v>
+      </c>
+      <c r="J123" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" t="s">
+        <v>194</v>
+      </c>
+      <c r="C124" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" t="s">
+        <v>41</v>
+      </c>
+      <c r="E124">
+        <v>852311</v>
+      </c>
+      <c r="F124" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" t="s">
+        <v>16</v>
+      </c>
+      <c r="H124">
+        <v>7645</v>
+      </c>
+      <c r="I124" s="1">
+        <v>46012.067708333299</v>
+      </c>
+      <c r="J124" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>195</v>
+      </c>
+      <c r="C125" t="s">
+        <v>108</v>
+      </c>
+      <c r="D125" t="s">
+        <v>109</v>
+      </c>
+      <c r="E125">
+        <v>872117</v>
+      </c>
+      <c r="F125" t="s">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125">
+        <v>4886.54</v>
+      </c>
+      <c r="I125" s="1">
+        <v>46012.102916666699</v>
+      </c>
+      <c r="J125" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" t="s">
+        <v>196</v>
+      </c>
+      <c r="C126" t="s">
+        <v>92</v>
+      </c>
+      <c r="D126" t="s">
+        <v>93</v>
+      </c>
+      <c r="E126">
+        <v>866868</v>
+      </c>
+      <c r="F126" t="s">
+        <v>197</v>
+      </c>
+      <c r="G126" t="s">
+        <v>198</v>
+      </c>
+      <c r="H126">
+        <v>8169</v>
+      </c>
+      <c r="I126" s="1">
+        <v>46012.138252314799</v>
+      </c>
+      <c r="J126" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>199</v>
+      </c>
+      <c r="C127" t="s">
+        <v>108</v>
+      </c>
+      <c r="D127" t="s">
+        <v>109</v>
+      </c>
+      <c r="E127">
+        <v>871191</v>
+      </c>
+      <c r="F127" t="s">
+        <v>110</v>
+      </c>
+      <c r="G127" t="s">
+        <v>111</v>
+      </c>
+      <c r="H127">
+        <v>10051</v>
+      </c>
+      <c r="I127" s="1">
+        <v>46012.149085648103</v>
+      </c>
+      <c r="J127" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>200</v>
+      </c>
+      <c r="C128" t="s">
+        <v>201</v>
+      </c>
+      <c r="D128" t="s">
+        <v>202</v>
+      </c>
+      <c r="E128">
+        <v>862151</v>
+      </c>
+      <c r="F128" t="s">
+        <v>203</v>
+      </c>
+      <c r="G128" t="s">
+        <v>204</v>
+      </c>
+      <c r="H128">
+        <v>3530</v>
+      </c>
+      <c r="I128" s="1">
+        <v>46012.1495601852</v>
+      </c>
+      <c r="J128" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>205</v>
+      </c>
+      <c r="C129" t="s">
+        <v>206</v>
+      </c>
+      <c r="D129" t="s">
+        <v>207</v>
+      </c>
+      <c r="E129">
+        <v>863990</v>
+      </c>
+      <c r="F129" t="s">
+        <v>110</v>
+      </c>
+      <c r="G129" t="s">
+        <v>111</v>
+      </c>
+      <c r="H129">
+        <v>9524</v>
+      </c>
+      <c r="I129" s="1">
+        <v>46012.210138888899</v>
+      </c>
+      <c r="J129" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>208</v>
+      </c>
+      <c r="C130" t="s">
+        <v>78</v>
+      </c>
+      <c r="D130" t="s">
+        <v>79</v>
+      </c>
+      <c r="E130">
+        <v>860916</v>
+      </c>
+      <c r="F130" t="s">
+        <v>80</v>
+      </c>
+      <c r="G130" t="s">
+        <v>81</v>
+      </c>
+      <c r="H130">
+        <v>6110</v>
+      </c>
+      <c r="I130" s="1">
+        <v>46012.210706018501</v>
+      </c>
+      <c r="J130" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" t="s">
+        <v>189</v>
+      </c>
+      <c r="C131" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" t="s">
+        <v>27</v>
+      </c>
+      <c r="E131">
+        <v>872773</v>
+      </c>
+      <c r="F131" t="s">
+        <v>105</v>
+      </c>
+      <c r="G131" t="s">
+        <v>106</v>
+      </c>
+      <c r="H131">
+        <v>3968.59</v>
+      </c>
+      <c r="I131" s="1">
+        <v>46012.2112037037</v>
+      </c>
+      <c r="J131" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>209</v>
+      </c>
+      <c r="C132" t="s">
+        <v>35</v>
+      </c>
+      <c r="D132" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132">
+        <v>872355</v>
+      </c>
+      <c r="F132" t="s">
+        <v>37</v>
+      </c>
+      <c r="G132" t="s">
+        <v>38</v>
+      </c>
+      <c r="H132">
+        <v>25642.212230215799</v>
+      </c>
+      <c r="I132" s="1">
+        <v>46012.220219907402</v>
+      </c>
+      <c r="J132" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>210</v>
+      </c>
+      <c r="C133" t="s">
+        <v>148</v>
+      </c>
+      <c r="D133" t="s">
+        <v>149</v>
+      </c>
+      <c r="E133">
+        <v>871741</v>
+      </c>
+      <c r="F133" t="s">
+        <v>150</v>
+      </c>
+      <c r="G133" t="s">
+        <v>151</v>
+      </c>
+      <c r="H133">
+        <v>8478</v>
+      </c>
+      <c r="I133" s="1">
+        <v>46012.234340277799</v>
+      </c>
+      <c r="J133" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>211</v>
+      </c>
+      <c r="C134" t="s">
+        <v>212</v>
+      </c>
+      <c r="D134" t="s">
+        <v>213</v>
+      </c>
+      <c r="E134">
+        <v>872126</v>
+      </c>
+      <c r="F134" t="s">
+        <v>40</v>
+      </c>
+      <c r="G134" t="s">
+        <v>41</v>
+      </c>
+      <c r="H134">
+        <v>5508.2506878307004</v>
+      </c>
+      <c r="I134" s="1">
+        <v>46012.235844907402</v>
+      </c>
+      <c r="J134" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>214</v>
+      </c>
+      <c r="C135" t="s">
+        <v>40</v>
+      </c>
+      <c r="D135" t="s">
+        <v>41</v>
+      </c>
+      <c r="E135">
+        <v>872020</v>
+      </c>
+      <c r="F135" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135">
+        <v>7542</v>
+      </c>
+      <c r="I135" s="1">
+        <v>46012.242847222202</v>
+      </c>
+      <c r="J135" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>215</v>
+      </c>
+      <c r="C136" t="s">
+        <v>155</v>
+      </c>
+      <c r="D136" t="s">
+        <v>156</v>
+      </c>
+      <c r="E136">
+        <v>872367</v>
+      </c>
+      <c r="F136" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" t="s">
+        <v>32</v>
+      </c>
+      <c r="H136">
+        <v>7582.5</v>
+      </c>
+      <c r="I136" s="1">
+        <v>46012.246354166702</v>
+      </c>
+      <c r="J136" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>216</v>
+      </c>
+      <c r="C137" t="s">
+        <v>217</v>
+      </c>
+      <c r="D137" t="s">
+        <v>218</v>
+      </c>
+      <c r="E137">
+        <v>846789</v>
+      </c>
+      <c r="F137" t="s">
+        <v>219</v>
+      </c>
+      <c r="G137" t="s">
+        <v>220</v>
+      </c>
+      <c r="H137">
+        <v>17430.98</v>
+      </c>
+      <c r="I137" s="1">
+        <v>46012.274942129603</v>
+      </c>
+      <c r="J137" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>221</v>
+      </c>
+      <c r="C138" t="s">
+        <v>201</v>
+      </c>
+      <c r="D138" t="s">
+        <v>202</v>
+      </c>
+      <c r="E138">
+        <v>862151</v>
+      </c>
+      <c r="F138" t="s">
+        <v>203</v>
+      </c>
+      <c r="G138" t="s">
+        <v>204</v>
+      </c>
+      <c r="H138">
+        <v>1540.77571146678</v>
+      </c>
+      <c r="I138" s="1">
+        <v>46012.313819444404</v>
+      </c>
+      <c r="J138" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>199</v>
+      </c>
+      <c r="C139" t="s">
+        <v>108</v>
+      </c>
+      <c r="D139" t="s">
+        <v>109</v>
+      </c>
+      <c r="E139">
+        <v>871170</v>
+      </c>
+      <c r="F139" t="s">
+        <v>110</v>
+      </c>
+      <c r="G139" t="s">
+        <v>111</v>
+      </c>
+      <c r="H139">
+        <v>5581.49</v>
+      </c>
+      <c r="I139" s="1">
+        <v>46012.345451388901</v>
+      </c>
+      <c r="J139" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" t="s">
+        <v>199</v>
+      </c>
+      <c r="C140" t="s">
+        <v>108</v>
+      </c>
+      <c r="D140" t="s">
+        <v>109</v>
+      </c>
+      <c r="E140">
+        <v>871279</v>
+      </c>
+      <c r="F140" t="s">
+        <v>110</v>
+      </c>
+      <c r="G140" t="s">
+        <v>111</v>
+      </c>
+      <c r="H140">
+        <v>4585.97</v>
+      </c>
+      <c r="I140" s="1">
+        <v>46012.387627314798</v>
+      </c>
+      <c r="J140" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" t="s">
+        <v>222</v>
+      </c>
+      <c r="C141" t="s">
+        <v>40</v>
+      </c>
+      <c r="D141" t="s">
+        <v>41</v>
+      </c>
+      <c r="E141">
+        <v>859235</v>
+      </c>
+      <c r="F141" t="s">
+        <v>31</v>
+      </c>
+      <c r="G141" t="s">
+        <v>32</v>
+      </c>
+      <c r="H141">
+        <v>640.83000000000095</v>
+      </c>
+      <c r="I141" s="1">
+        <v>46012.400497685201</v>
+      </c>
+      <c r="J141" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" t="s">
+        <v>174</v>
+      </c>
+      <c r="C142" t="s">
+        <v>115</v>
+      </c>
+      <c r="D142" t="s">
+        <v>116</v>
+      </c>
+      <c r="E142">
+        <v>872906</v>
+      </c>
+      <c r="F142" t="s">
+        <v>138</v>
+      </c>
+      <c r="G142" t="s">
+        <v>139</v>
+      </c>
+      <c r="H142">
+        <v>13017.09</v>
+      </c>
+      <c r="I142" s="1">
+        <v>46012.400763888902</v>
+      </c>
+      <c r="J142" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" t="s">
+        <v>211</v>
+      </c>
+      <c r="C143" t="s">
+        <v>212</v>
+      </c>
+      <c r="D143" t="s">
+        <v>213</v>
+      </c>
+      <c r="E143">
+        <v>871251</v>
+      </c>
+      <c r="F143" t="s">
+        <v>75</v>
+      </c>
+      <c r="G143" t="s">
+        <v>76</v>
+      </c>
+      <c r="H143">
+        <v>2831.1706878307</v>
+      </c>
+      <c r="I143" s="1">
+        <v>46012.415416666699</v>
+      </c>
+      <c r="J143" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" t="s">
+        <v>135</v>
+      </c>
+      <c r="C144" t="s">
+        <v>35</v>
+      </c>
+      <c r="D144" t="s">
+        <v>36</v>
+      </c>
+      <c r="E144">
+        <v>872346</v>
+      </c>
+      <c r="F144" t="s">
+        <v>37</v>
+      </c>
+      <c r="G144" t="s">
+        <v>38</v>
+      </c>
+      <c r="H144">
+        <v>12723.960575539601</v>
+      </c>
+      <c r="I144" s="1">
+        <v>46012.446666666699</v>
+      </c>
+      <c r="J144" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" t="s">
+        <v>223</v>
+      </c>
+      <c r="C145" t="s">
+        <v>40</v>
+      </c>
+      <c r="D145" t="s">
+        <v>41</v>
+      </c>
+      <c r="E145">
+        <v>872410</v>
+      </c>
+      <c r="F145" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145">
+        <v>8885</v>
+      </c>
+      <c r="I145" s="1">
+        <v>46012.449131944399</v>
+      </c>
+      <c r="J145" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" t="s">
+        <v>224</v>
+      </c>
+      <c r="C146" t="s">
+        <v>155</v>
+      </c>
+      <c r="D146" t="s">
+        <v>156</v>
+      </c>
+      <c r="E146">
+        <v>872367</v>
+      </c>
+      <c r="F146" t="s">
+        <v>31</v>
+      </c>
+      <c r="G146" t="s">
+        <v>32</v>
+      </c>
+      <c r="H146">
+        <v>16723</v>
+      </c>
+      <c r="I146" s="1">
+        <v>46012.449560185203</v>
+      </c>
+      <c r="J146" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" t="s">
+        <v>225</v>
+      </c>
+      <c r="C147" t="s">
+        <v>98</v>
+      </c>
+      <c r="D147" t="s">
+        <v>99</v>
+      </c>
+      <c r="E147">
+        <v>872363</v>
+      </c>
+      <c r="F147" t="s">
+        <v>37</v>
+      </c>
+      <c r="G147" t="s">
+        <v>38</v>
+      </c>
+      <c r="H147">
+        <v>35715</v>
+      </c>
+      <c r="I147" s="1">
+        <v>46012.450937499998</v>
+      </c>
+      <c r="J147" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" t="s">
+        <v>226</v>
+      </c>
+      <c r="C148" t="s">
+        <v>227</v>
+      </c>
+      <c r="D148" t="s">
+        <v>228</v>
+      </c>
+      <c r="E148">
+        <v>864499</v>
+      </c>
+      <c r="F148" t="s">
+        <v>75</v>
+      </c>
+      <c r="G148" t="s">
+        <v>76</v>
+      </c>
+      <c r="H148">
+        <v>1914.23</v>
+      </c>
+      <c r="I148" s="1">
+        <v>46012.458680555603</v>
+      </c>
+      <c r="J148" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" t="s">
+        <v>229</v>
+      </c>
+      <c r="C149" t="s">
+        <v>92</v>
+      </c>
+      <c r="D149" t="s">
+        <v>93</v>
+      </c>
+      <c r="E149">
+        <v>866868</v>
+      </c>
+      <c r="F149" t="s">
+        <v>197</v>
+      </c>
+      <c r="G149" t="s">
+        <v>198</v>
+      </c>
+      <c r="H149">
+        <v>7541</v>
+      </c>
+      <c r="I149" s="1">
+        <v>46012.464687500003</v>
+      </c>
+      <c r="J149" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" t="s">
+        <v>230</v>
+      </c>
+      <c r="C150" t="s">
+        <v>180</v>
+      </c>
+      <c r="D150" t="s">
+        <v>181</v>
+      </c>
+      <c r="E150">
+        <v>863990</v>
+      </c>
+      <c r="F150" t="s">
+        <v>110</v>
+      </c>
+      <c r="G150" t="s">
+        <v>111</v>
+      </c>
+      <c r="H150">
+        <v>9372</v>
+      </c>
+      <c r="I150" s="1">
+        <v>46012.512627314798</v>
+      </c>
+      <c r="J150" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" t="s">
+        <v>231</v>
+      </c>
+      <c r="C151" t="s">
+        <v>40</v>
+      </c>
+      <c r="D151" t="s">
+        <v>41</v>
+      </c>
+      <c r="E151">
+        <v>872020</v>
+      </c>
+      <c r="F151" t="s">
+        <v>21</v>
+      </c>
+      <c r="G151" t="s">
+        <v>22</v>
+      </c>
+      <c r="H151">
+        <v>20042</v>
+      </c>
+      <c r="I151" s="1">
+        <v>46012.514305555596</v>
+      </c>
+      <c r="J151" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" t="s">
+        <v>232</v>
+      </c>
+      <c r="C152" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152">
+        <v>865142</v>
+      </c>
+      <c r="F152" t="s">
+        <v>75</v>
+      </c>
+      <c r="G152" t="s">
+        <v>76</v>
+      </c>
+      <c r="H152">
+        <v>8861</v>
+      </c>
+      <c r="I152" s="1">
+        <v>46012.514594907399</v>
+      </c>
+      <c r="J152" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" t="s">
+        <v>233</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153">
+        <v>859235</v>
+      </c>
+      <c r="F153" t="s">
+        <v>31</v>
+      </c>
+      <c r="G153" t="s">
+        <v>32</v>
+      </c>
+      <c r="H153">
+        <v>6544.07</v>
+      </c>
+      <c r="I153" s="1">
+        <v>46012.526238425897</v>
+      </c>
+      <c r="J153" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" t="s">
+        <v>234</v>
+      </c>
+      <c r="C154" t="s">
+        <v>227</v>
+      </c>
+      <c r="D154" t="s">
+        <v>228</v>
+      </c>
+      <c r="E154">
+        <v>864499</v>
+      </c>
+      <c r="F154" t="s">
+        <v>75</v>
+      </c>
+      <c r="G154" t="s">
+        <v>76</v>
+      </c>
+      <c r="H154">
+        <v>3424.0179573512901</v>
+      </c>
+      <c r="I154" s="1">
+        <v>46012.532488425903</v>
+      </c>
+      <c r="J154" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" t="s">
+        <v>234</v>
+      </c>
+      <c r="C155" t="s">
+        <v>227</v>
+      </c>
+      <c r="D155" t="s">
+        <v>228</v>
+      </c>
+      <c r="E155">
+        <v>864663</v>
+      </c>
+      <c r="F155" t="s">
+        <v>75</v>
+      </c>
+      <c r="G155" t="s">
+        <v>76</v>
+      </c>
+      <c r="H155">
+        <v>1053.58795735129</v>
+      </c>
+      <c r="I155" s="1">
+        <v>46012.535439814797</v>
+      </c>
+      <c r="J155" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" t="s">
+        <v>235</v>
+      </c>
+      <c r="C156" t="s">
+        <v>108</v>
+      </c>
+      <c r="D156" t="s">
+        <v>109</v>
+      </c>
+      <c r="E156">
+        <v>871279</v>
+      </c>
+      <c r="F156" t="s">
+        <v>110</v>
+      </c>
+      <c r="G156" t="s">
+        <v>111</v>
+      </c>
+      <c r="H156">
+        <v>8106</v>
+      </c>
+      <c r="I156" s="1">
+        <v>46012.536782407398</v>
+      </c>
+      <c r="J156" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" t="s">
+        <v>236</v>
+      </c>
+      <c r="C157" t="s">
+        <v>47</v>
+      </c>
+      <c r="D157" t="s">
+        <v>48</v>
+      </c>
+      <c r="E157">
+        <v>872784</v>
+      </c>
+      <c r="F157" t="s">
+        <v>115</v>
+      </c>
+      <c r="G157" t="s">
+        <v>116</v>
+      </c>
+      <c r="H157">
+        <v>17411</v>
+      </c>
+      <c r="I157" s="1">
+        <v>46012.5374884259</v>
+      </c>
+      <c r="J157" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" t="s">
+        <v>232</v>
+      </c>
+      <c r="C158" t="s">
+        <v>21</v>
+      </c>
+      <c r="D158" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158">
+        <v>871994</v>
+      </c>
+      <c r="F158" t="s">
+        <v>75</v>
+      </c>
+      <c r="G158" t="s">
+        <v>76</v>
+      </c>
+      <c r="H158">
+        <v>5154.82</v>
+      </c>
+      <c r="I158" s="1">
+        <v>46012.548379629603</v>
+      </c>
+      <c r="J158" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" t="s">
+        <v>231</v>
+      </c>
+      <c r="C159" t="s">
+        <v>40</v>
+      </c>
+      <c r="D159" t="s">
+        <v>41</v>
+      </c>
+      <c r="E159">
+        <v>871954</v>
+      </c>
+      <c r="F159" t="s">
+        <v>21</v>
+      </c>
+      <c r="G159" t="s">
+        <v>22</v>
+      </c>
+      <c r="H159">
+        <v>18258.64</v>
+      </c>
+      <c r="I159" s="1">
+        <v>46012.548703703702</v>
+      </c>
+      <c r="J159" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" t="s">
+        <v>232</v>
+      </c>
+      <c r="C160" t="s">
+        <v>21</v>
+      </c>
+      <c r="D160" t="s">
+        <v>22</v>
+      </c>
+      <c r="E160">
+        <v>864984</v>
+      </c>
+      <c r="F160" t="s">
+        <v>75</v>
+      </c>
+      <c r="G160" t="s">
+        <v>76</v>
+      </c>
+      <c r="H160">
+        <v>4999.3500000000004</v>
+      </c>
+      <c r="I160" s="1">
+        <v>46012.564201388901</v>
+      </c>
+      <c r="J160" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" t="s">
+        <v>232</v>
+      </c>
+      <c r="C161" t="s">
+        <v>21</v>
+      </c>
+      <c r="D161" t="s">
+        <v>22</v>
+      </c>
+      <c r="E161">
+        <v>865109</v>
+      </c>
+      <c r="F161" t="s">
+        <v>75</v>
+      </c>
+      <c r="G161" t="s">
+        <v>76</v>
+      </c>
+      <c r="H161">
+        <v>4760.62</v>
+      </c>
+      <c r="I161" s="1">
+        <v>46012.5780787037</v>
+      </c>
+      <c r="J161" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" t="s">
+        <v>118</v>
+      </c>
+      <c r="C162" t="s">
+        <v>67</v>
+      </c>
+      <c r="D162" t="s">
+        <v>68</v>
+      </c>
+      <c r="E162">
+        <v>872402</v>
+      </c>
+      <c r="F162" t="s">
+        <v>31</v>
+      </c>
+      <c r="G162" t="s">
+        <v>32</v>
+      </c>
+      <c r="H162">
+        <v>10773.289999999999</v>
+      </c>
+      <c r="I162" s="1">
+        <v>46012.581863425898</v>
+      </c>
+      <c r="J162" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" t="s">
+        <v>237</v>
+      </c>
+      <c r="C163" t="s">
+        <v>148</v>
+      </c>
+      <c r="D163" t="s">
+        <v>149</v>
+      </c>
+      <c r="E163">
+        <v>871741</v>
+      </c>
+      <c r="F163" t="s">
+        <v>150</v>
+      </c>
+      <c r="G163" t="s">
+        <v>151</v>
+      </c>
+      <c r="H163">
+        <v>8499</v>
+      </c>
+      <c r="I163" s="1">
+        <v>46012.596539351798</v>
+      </c>
+      <c r="J163" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" t="s">
+        <v>238</v>
+      </c>
+      <c r="C164" t="s">
+        <v>201</v>
+      </c>
+      <c r="D164" t="s">
+        <v>202</v>
+      </c>
+      <c r="E164">
+        <v>862151</v>
+      </c>
+      <c r="F164" t="s">
+        <v>203</v>
+      </c>
+      <c r="G164" t="s">
+        <v>204</v>
+      </c>
+      <c r="H164">
+        <v>3048</v>
+      </c>
+      <c r="I164" s="1">
+        <v>46012.599259259303</v>
+      </c>
+      <c r="J164" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" t="s">
+        <v>239</v>
+      </c>
+      <c r="C165" t="s">
+        <v>201</v>
+      </c>
+      <c r="D165" t="s">
+        <v>202</v>
+      </c>
+      <c r="E165">
+        <v>862151</v>
+      </c>
+      <c r="F165" t="s">
+        <v>203</v>
+      </c>
+      <c r="G165" t="s">
+        <v>204</v>
+      </c>
+      <c r="H165">
+        <v>2730</v>
+      </c>
+      <c r="I165" s="1">
+        <v>46012.609224537002</v>
+      </c>
+      <c r="J165" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" t="s">
+        <v>240</v>
+      </c>
+      <c r="C166" t="s">
+        <v>148</v>
+      </c>
+      <c r="D166" t="s">
+        <v>149</v>
+      </c>
+      <c r="E166">
+        <v>871741</v>
+      </c>
+      <c r="F166" t="s">
+        <v>150</v>
+      </c>
+      <c r="G166" t="s">
+        <v>151</v>
+      </c>
+      <c r="H166">
+        <v>8494</v>
+      </c>
+      <c r="I166" s="1">
+        <v>46012.615219907399</v>
+      </c>
+      <c r="J166" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" t="s">
+        <v>241</v>
+      </c>
+      <c r="C167" t="s">
+        <v>242</v>
+      </c>
+      <c r="D167" t="s">
+        <v>243</v>
+      </c>
+      <c r="E167">
+        <v>872410</v>
+      </c>
+      <c r="F167" t="s">
+        <v>15</v>
+      </c>
+      <c r="G167" t="s">
+        <v>16</v>
+      </c>
+      <c r="H167">
+        <v>14249</v>
+      </c>
+      <c r="I167" s="1">
+        <v>46012.621319444399</v>
+      </c>
+      <c r="J167" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" t="s">
+        <v>232</v>
+      </c>
+      <c r="C168" t="s">
+        <v>21</v>
+      </c>
+      <c r="D168" t="s">
+        <v>22</v>
+      </c>
+      <c r="E168">
+        <v>864956</v>
+      </c>
+      <c r="F168" t="s">
+        <v>75</v>
+      </c>
+      <c r="G168" t="s">
+        <v>76</v>
+      </c>
+      <c r="H168">
+        <v>4469.2</v>
+      </c>
+      <c r="I168" s="1">
+        <v>46012.688136574099</v>
+      </c>
+      <c r="J168" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>11</v>
+      </c>
+      <c r="B169" t="s">
+        <v>244</v>
+      </c>
+      <c r="C169" t="s">
+        <v>180</v>
+      </c>
+      <c r="D169" t="s">
+        <v>181</v>
+      </c>
+      <c r="E169">
+        <v>864623</v>
+      </c>
+      <c r="F169" t="s">
+        <v>110</v>
+      </c>
+      <c r="G169" t="s">
+        <v>111</v>
+      </c>
+      <c r="H169">
+        <v>6202.98</v>
+      </c>
+      <c r="I169" s="1">
+        <v>46012.731620370403</v>
+      </c>
+      <c r="J169" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170" t="s">
+        <v>245</v>
+      </c>
+      <c r="C170" t="s">
+        <v>201</v>
+      </c>
+      <c r="D170" t="s">
+        <v>202</v>
+      </c>
+      <c r="E170">
+        <v>862151</v>
+      </c>
+      <c r="F170" t="s">
+        <v>203</v>
+      </c>
+      <c r="G170" t="s">
+        <v>204</v>
+      </c>
+      <c r="H170">
+        <v>5219</v>
+      </c>
+      <c r="I170" s="1">
+        <v>46012.788171296299</v>
+      </c>
+      <c r="J170" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" t="s">
+        <v>236</v>
+      </c>
+      <c r="C171" t="s">
+        <v>47</v>
+      </c>
+      <c r="D171" t="s">
+        <v>48</v>
+      </c>
+      <c r="E171">
+        <v>872769</v>
+      </c>
+      <c r="F171" t="s">
+        <v>115</v>
+      </c>
+      <c r="G171" t="s">
+        <v>116</v>
+      </c>
+      <c r="H171">
+        <v>8533.49</v>
+      </c>
+      <c r="I171" s="1">
+        <v>46012.788784722201</v>
+      </c>
+      <c r="J171" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" t="s">
+        <v>246</v>
+      </c>
+      <c r="C172" t="s">
+        <v>75</v>
+      </c>
+      <c r="D172" t="s">
+        <v>76</v>
+      </c>
+      <c r="E172">
+        <v>862734</v>
+      </c>
+      <c r="F172" t="s">
+        <v>19</v>
+      </c>
+      <c r="G172" t="s">
+        <v>20</v>
+      </c>
+      <c r="H172">
+        <v>5855</v>
+      </c>
+      <c r="I172" s="1">
+        <v>46012.792650463001</v>
+      </c>
+      <c r="J172" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" t="s">
+        <v>247</v>
+      </c>
+      <c r="C173" t="s">
+        <v>92</v>
+      </c>
+      <c r="D173" t="s">
+        <v>93</v>
+      </c>
+      <c r="E173">
+        <v>872109</v>
+      </c>
+      <c r="F173" t="s">
+        <v>148</v>
+      </c>
+      <c r="G173" t="s">
+        <v>149</v>
+      </c>
+      <c r="H173">
+        <v>2054.87</v>
+      </c>
+      <c r="I173" s="1">
+        <v>46012.807847222197</v>
+      </c>
+      <c r="J173" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" t="s">
+        <v>248</v>
+      </c>
+      <c r="C174" t="s">
+        <v>108</v>
+      </c>
+      <c r="D174" t="s">
+        <v>109</v>
+      </c>
+      <c r="E174">
+        <v>871279</v>
+      </c>
+      <c r="F174" t="s">
+        <v>110</v>
+      </c>
+      <c r="G174" t="s">
+        <v>111</v>
+      </c>
+      <c r="H174">
+        <v>9727</v>
+      </c>
+      <c r="I174" s="1">
+        <v>46012.814768518503</v>
+      </c>
+      <c r="J174" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" t="s">
+        <v>246</v>
+      </c>
+      <c r="C175" t="s">
+        <v>75</v>
+      </c>
+      <c r="D175" t="s">
+        <v>76</v>
+      </c>
+      <c r="E175">
+        <v>861470</v>
+      </c>
+      <c r="F175" t="s">
+        <v>19</v>
+      </c>
+      <c r="G175" t="s">
+        <v>20</v>
+      </c>
+      <c r="H175">
+        <v>5343.35</v>
+      </c>
+      <c r="I175" s="1">
+        <v>46012.843831018501</v>
+      </c>
+      <c r="J175" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" t="s">
+        <v>249</v>
+      </c>
+      <c r="C176" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" t="s">
+        <v>20</v>
+      </c>
+      <c r="E176">
+        <v>871310</v>
+      </c>
+      <c r="F176" t="s">
+        <v>21</v>
+      </c>
+      <c r="G176" t="s">
+        <v>22</v>
+      </c>
+      <c r="H176">
+        <v>4365.0793650793603</v>
+      </c>
+      <c r="I176" s="1">
+        <v>46012.865104166704</v>
+      </c>
+      <c r="J176" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177" t="s">
+        <v>250</v>
+      </c>
+      <c r="C177" t="s">
+        <v>155</v>
+      </c>
+      <c r="D177" t="s">
+        <v>156</v>
+      </c>
+      <c r="E177">
+        <v>872367</v>
+      </c>
+      <c r="F177" t="s">
+        <v>31</v>
+      </c>
+      <c r="G177" t="s">
+        <v>32</v>
+      </c>
+      <c r="H177">
+        <v>19064</v>
+      </c>
+      <c r="I177" s="1">
+        <v>46012.904699074097</v>
+      </c>
+      <c r="J177" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" t="s">
+        <v>161</v>
+      </c>
+      <c r="C178" t="s">
+        <v>92</v>
+      </c>
+      <c r="D178" t="s">
+        <v>93</v>
+      </c>
+      <c r="E178">
+        <v>872109</v>
+      </c>
+      <c r="F178" t="s">
+        <v>148</v>
+      </c>
+      <c r="G178" t="s">
+        <v>149</v>
+      </c>
+      <c r="H178">
+        <v>4861.5600000000004</v>
+      </c>
+      <c r="I178" s="1">
+        <v>46012.923599537004</v>
+      </c>
+      <c r="J178" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" t="s">
+        <v>251</v>
+      </c>
+      <c r="C179" t="s">
+        <v>148</v>
+      </c>
+      <c r="D179" t="s">
+        <v>149</v>
+      </c>
+      <c r="E179">
+        <v>871741</v>
+      </c>
+      <c r="F179" t="s">
+        <v>150</v>
+      </c>
+      <c r="G179" t="s">
+        <v>151</v>
+      </c>
+      <c r="H179">
+        <v>8746</v>
+      </c>
+      <c r="I179" s="1">
+        <v>46012.941979166702</v>
+      </c>
+      <c r="J179" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" t="s">
+        <v>252</v>
+      </c>
+      <c r="C180" t="s">
+        <v>75</v>
+      </c>
+      <c r="D180" t="s">
+        <v>76</v>
+      </c>
+      <c r="E180">
+        <v>871256</v>
+      </c>
+      <c r="F180" t="s">
+        <v>75</v>
+      </c>
+      <c r="G180" t="s">
+        <v>76</v>
+      </c>
+      <c r="H180">
+        <v>1752.47</v>
+      </c>
+      <c r="I180" s="1">
+        <v>46012.9594560185</v>
+      </c>
+      <c r="J180" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" t="s">
+        <v>66</v>
+      </c>
+      <c r="C181" t="s">
+        <v>67</v>
+      </c>
+      <c r="D181" t="s">
+        <v>68</v>
+      </c>
+      <c r="E181">
+        <v>872402</v>
+      </c>
+      <c r="F181" t="s">
+        <v>31</v>
+      </c>
+      <c r="G181" t="s">
+        <v>32</v>
+      </c>
+      <c r="H181">
+        <v>12604.09</v>
+      </c>
+      <c r="I181" s="1">
+        <v>46013.0153587963</v>
+      </c>
+      <c r="J181" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182" t="s">
+        <v>253</v>
+      </c>
+      <c r="C182" t="s">
+        <v>40</v>
+      </c>
+      <c r="D182" t="s">
+        <v>41</v>
+      </c>
+      <c r="E182">
+        <v>871310</v>
+      </c>
+      <c r="F182" t="s">
+        <v>21</v>
+      </c>
+      <c r="G182" t="s">
+        <v>22</v>
+      </c>
+      <c r="H182">
+        <v>17562</v>
+      </c>
+      <c r="I182" s="1">
+        <v>46013.024756944404</v>
+      </c>
+      <c r="J182" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183" t="s">
+        <v>254</v>
+      </c>
+      <c r="C183" t="s">
+        <v>98</v>
+      </c>
+      <c r="D183" t="s">
+        <v>99</v>
+      </c>
+      <c r="E183">
+        <v>872359</v>
+      </c>
+      <c r="F183" t="s">
+        <v>61</v>
+      </c>
+      <c r="G183" t="s">
+        <v>62</v>
+      </c>
+      <c r="H183">
+        <v>17858</v>
+      </c>
+      <c r="I183" s="1">
+        <v>46013.033333333296</v>
+      </c>
+      <c r="J183" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>11</v>
+      </c>
+      <c r="B184" t="s">
+        <v>255</v>
+      </c>
+      <c r="C184" t="s">
+        <v>201</v>
+      </c>
+      <c r="D184" t="s">
+        <v>202</v>
+      </c>
+      <c r="E184">
+        <v>862151</v>
+      </c>
+      <c r="F184" t="s">
+        <v>203</v>
+      </c>
+      <c r="G184" t="s">
+        <v>204</v>
+      </c>
+      <c r="H184">
+        <v>1968.2812299934201</v>
+      </c>
+      <c r="I184" s="1">
+        <v>46013.034085648098</v>
+      </c>
+      <c r="J184" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>11</v>
+      </c>
+      <c r="B185" t="s">
+        <v>256</v>
+      </c>
+      <c r="C185" t="s">
+        <v>201</v>
+      </c>
+      <c r="D185" t="s">
+        <v>202</v>
+      </c>
+      <c r="E185">
+        <v>862151</v>
+      </c>
+      <c r="F185" t="s">
+        <v>203</v>
+      </c>
+      <c r="G185" t="s">
+        <v>204</v>
+      </c>
+      <c r="H185">
+        <v>5437.9960534970396</v>
+      </c>
+      <c r="I185" s="1">
+        <v>46013.034467592603</v>
+      </c>
+      <c r="J185" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>11</v>
+      </c>
+      <c r="B186" t="s">
+        <v>257</v>
+      </c>
+      <c r="C186" t="s">
+        <v>242</v>
+      </c>
+      <c r="D186" t="s">
+        <v>243</v>
+      </c>
+      <c r="E186">
+        <v>859235</v>
+      </c>
+      <c r="F186" t="s">
+        <v>31</v>
+      </c>
+      <c r="G186" t="s">
+        <v>32</v>
+      </c>
+      <c r="H186">
+        <v>5959</v>
+      </c>
+      <c r="I186" s="1">
+        <v>46013.074606481503</v>
+      </c>
+      <c r="J186" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>11</v>
+      </c>
+      <c r="B187" t="s">
+        <v>258</v>
+      </c>
+      <c r="C187" t="s">
+        <v>108</v>
+      </c>
+      <c r="D187" t="s">
+        <v>109</v>
+      </c>
+      <c r="E187">
+        <v>871279</v>
+      </c>
+      <c r="F187" t="s">
+        <v>110</v>
+      </c>
+      <c r="G187" t="s">
+        <v>111</v>
+      </c>
+      <c r="H187">
+        <v>9261</v>
+      </c>
+      <c r="I187" s="1">
+        <v>46013.109861111101</v>
+      </c>
+      <c r="J187" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188" t="s">
+        <v>257</v>
+      </c>
+      <c r="C188" t="s">
+        <v>242</v>
+      </c>
+      <c r="D188" t="s">
+        <v>243</v>
+      </c>
+      <c r="E188">
+        <v>866496</v>
+      </c>
+      <c r="F188" t="s">
+        <v>31</v>
+      </c>
+      <c r="G188" t="s">
+        <v>32</v>
+      </c>
+      <c r="H188">
+        <v>1367.97</v>
+      </c>
+      <c r="I188" s="1">
+        <v>46013.111203703702</v>
+      </c>
+      <c r="J188" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>11</v>
+      </c>
+      <c r="B189" t="s">
+        <v>259</v>
+      </c>
+      <c r="C189" t="s">
+        <v>242</v>
+      </c>
+      <c r="D189" t="s">
+        <v>243</v>
+      </c>
+      <c r="E189">
+        <v>866496</v>
+      </c>
+      <c r="F189" t="s">
+        <v>31</v>
+      </c>
+      <c r="G189" t="s">
+        <v>32</v>
+      </c>
+      <c r="H189">
+        <v>14897</v>
+      </c>
+      <c r="I189" s="1">
+        <v>46013.111678240697</v>
+      </c>
+      <c r="J189" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>11</v>
+      </c>
+      <c r="B190" t="s">
+        <v>260</v>
+      </c>
+      <c r="C190" t="s">
+        <v>92</v>
+      </c>
+      <c r="D190" t="s">
+        <v>93</v>
+      </c>
+      <c r="E190">
+        <v>872109</v>
+      </c>
+      <c r="F190" t="s">
+        <v>148</v>
+      </c>
+      <c r="G190" t="s">
+        <v>149</v>
+      </c>
+      <c r="H190">
+        <v>7990</v>
+      </c>
+      <c r="I190" s="1">
+        <v>46013.137175925898</v>
+      </c>
+      <c r="J190" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191" t="s">
+        <v>261</v>
+      </c>
+      <c r="C191" t="s">
+        <v>26</v>
+      </c>
+      <c r="D191" t="s">
+        <v>27</v>
+      </c>
+      <c r="E191">
+        <v>872773</v>
+      </c>
+      <c r="F191" t="s">
+        <v>105</v>
+      </c>
+      <c r="G191" t="s">
+        <v>106</v>
+      </c>
+      <c r="H191">
+        <v>11197</v>
+      </c>
+      <c r="I191" s="1">
+        <v>46013.156215277799</v>
+      </c>
+      <c r="J191" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>11</v>
+      </c>
+      <c r="B192" t="s">
+        <v>262</v>
+      </c>
+      <c r="C192" t="s">
+        <v>26</v>
+      </c>
+      <c r="D192" t="s">
+        <v>27</v>
+      </c>
+      <c r="E192">
+        <v>872888</v>
+      </c>
+      <c r="F192" t="s">
+        <v>105</v>
+      </c>
+      <c r="G192" t="s">
+        <v>106</v>
+      </c>
+      <c r="H192">
+        <v>5734</v>
+      </c>
+      <c r="I192" s="1">
+        <v>46013.156712962998</v>
+      </c>
+      <c r="J192" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193" t="s">
+        <v>262</v>
+      </c>
+      <c r="C193" t="s">
+        <v>26</v>
+      </c>
+      <c r="D193" t="s">
+        <v>27</v>
+      </c>
+      <c r="E193">
+        <v>872902</v>
+      </c>
+      <c r="F193" t="s">
+        <v>105</v>
+      </c>
+      <c r="G193" t="s">
+        <v>106</v>
+      </c>
+      <c r="H193">
+        <v>5734</v>
+      </c>
+      <c r="I193" s="1">
+        <v>46013.267847222203</v>
+      </c>
+      <c r="J193" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>11</v>
+      </c>
+      <c r="B194" t="s">
+        <v>263</v>
+      </c>
+      <c r="C194" t="s">
+        <v>242</v>
+      </c>
+      <c r="D194" t="s">
+        <v>243</v>
+      </c>
+      <c r="E194">
+        <v>872367</v>
+      </c>
+      <c r="F194" t="s">
+        <v>31</v>
+      </c>
+      <c r="G194" t="s">
+        <v>32</v>
+      </c>
+      <c r="H194">
+        <v>10363</v>
+      </c>
+      <c r="I194" s="1">
+        <v>46013.2863194444</v>
+      </c>
+      <c r="J194" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>11</v>
+      </c>
+      <c r="B195" t="s">
+        <v>264</v>
+      </c>
+      <c r="C195" t="s">
+        <v>94</v>
+      </c>
+      <c r="D195" t="s">
+        <v>95</v>
+      </c>
+      <c r="E195">
+        <v>868554</v>
+      </c>
+      <c r="F195" t="s">
+        <v>197</v>
+      </c>
+      <c r="G195" t="s">
+        <v>198</v>
+      </c>
+      <c r="H195">
+        <v>6245</v>
+      </c>
+      <c r="I195" s="1">
+        <v>46013.290243055599</v>
+      </c>
+      <c r="J195" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
